--- a/beeswax/Beeswax Exchange Profile.xlsx
+++ b/beeswax/Beeswax Exchange Profile.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwunchoy/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5709253D-7D19-1947-8CB0-F386C17ABF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9778C795-114E-8048-AADF-A4EAB26EB26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="51200" windowHeight="26960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exchange Profile" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -254,9 +253,6 @@
     <t>MGID</t>
   </si>
   <si>
-    <t>mgid</t>
-  </si>
-  <si>
     <t>Millennial Media</t>
   </si>
   <si>
@@ -441,6 +437,9 @@
   </si>
   <si>
     <t>yoc</t>
+  </si>
+  <si>
+    <t>mgi</t>
   </si>
 </sst>
 </file>
@@ -872,7 +871,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1841,7 +1840,7 @@
         <v>76</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>17</v>
@@ -1861,10 +1860,10 @@
     </row>
     <row r="32" spans="1:16" ht="15">
       <c r="A32" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -1892,10 +1891,10 @@
     </row>
     <row r="33" spans="1:16" ht="15">
       <c r="A33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1929,10 +1928,10 @@
     </row>
     <row r="34" spans="1:16" ht="15">
       <c r="A34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="6" t="s">
@@ -1958,10 +1957,10 @@
     </row>
     <row r="35" spans="1:16" ht="15">
       <c r="A35" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>18</v>
@@ -1996,10 +1995,10 @@
     </row>
     <row r="36" spans="1:16" ht="15">
       <c r="A36" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>17</v>
@@ -2031,10 +2030,10 @@
     </row>
     <row r="37" spans="1:16" ht="15">
       <c r="A37" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>17</v>
@@ -2066,10 +2065,10 @@
     </row>
     <row r="38" spans="1:16" ht="15">
       <c r="A38" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>17</v>
@@ -2094,10 +2093,10 @@
     </row>
     <row r="39" spans="1:16" ht="15">
       <c r="A39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>17</v>
@@ -2124,10 +2123,10 @@
     </row>
     <row r="40" spans="1:16" ht="15">
       <c r="A40" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>17</v>
@@ -2150,10 +2149,10 @@
     </row>
     <row r="41" spans="1:16" ht="15">
       <c r="A41" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>17</v>
@@ -2188,10 +2187,10 @@
     </row>
     <row r="42" spans="1:16" ht="15">
       <c r="A42" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>17</v>
@@ -2224,10 +2223,10 @@
     </row>
     <row r="43" spans="1:16" ht="15">
       <c r="A43" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>17</v>
@@ -2259,10 +2258,10 @@
     </row>
     <row r="44" spans="1:16" ht="15">
       <c r="A44" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>17</v>
@@ -2294,10 +2293,10 @@
     </row>
     <row r="45" spans="1:16" ht="15">
       <c r="A45" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>17</v>
@@ -2322,10 +2321,10 @@
     </row>
     <row r="46" spans="1:16" ht="15">
       <c r="A46" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -2353,10 +2352,10 @@
     </row>
     <row r="47" spans="1:16" ht="15">
       <c r="A47" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>17</v>
@@ -2394,10 +2393,10 @@
     </row>
     <row r="48" spans="1:16" ht="15">
       <c r="A48" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>17</v>
@@ -2428,10 +2427,10 @@
     </row>
     <row r="49" spans="1:15" ht="15">
       <c r="A49" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>17</v>
@@ -2472,10 +2471,10 @@
     </row>
     <row r="50" spans="1:15" ht="15">
       <c r="A50" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>17</v>
@@ -2496,10 +2495,10 @@
     </row>
     <row r="51" spans="1:15" ht="15">
       <c r="A51" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6" t="s">
@@ -2533,10 +2532,10 @@
     </row>
     <row r="52" spans="1:15" ht="15">
       <c r="A52" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6" t="s">
@@ -2561,10 +2560,10 @@
     </row>
     <row r="53" spans="1:15" ht="15">
       <c r="A53" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6" t="s">
@@ -2596,10 +2595,10 @@
     </row>
     <row r="54" spans="1:15" ht="15">
       <c r="A54" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>17</v>
@@ -2622,10 +2621,10 @@
     </row>
     <row r="55" spans="1:15" ht="15">
       <c r="A55" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>17</v>
@@ -2663,10 +2662,10 @@
     </row>
     <row r="56" spans="1:15" ht="15">
       <c r="A56" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -2700,10 +2699,10 @@
     </row>
     <row r="57" spans="1:15" ht="15">
       <c r="A57" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6" t="s">
@@ -2729,10 +2728,10 @@
     </row>
     <row r="58" spans="1:15" ht="15">
       <c r="A58" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -2757,10 +2756,10 @@
     </row>
     <row r="59" spans="1:15" ht="15">
       <c r="A59" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>17</v>
@@ -2792,10 +2791,10 @@
     </row>
     <row r="60" spans="1:15" ht="15">
       <c r="A60" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>17</v>
@@ -2813,10 +2812,10 @@
     </row>
     <row r="61" spans="1:15" ht="15">
       <c r="A61" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>17</v>
@@ -2840,10 +2839,10 @@
     </row>
     <row r="62" spans="1:15" ht="15">
       <c r="A62" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>17</v>

--- a/beeswax/Beeswax Exchange Profile.xlsx
+++ b/beeswax/Beeswax Exchange Profile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwunchoy/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9778C795-114E-8048-AADF-A4EAB26EB26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB656F41-4EF0-9C4D-AAA4-331490719634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exchange Profile" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="140">
   <si>
     <t>Exchange Abbreviation</t>
   </si>
@@ -421,25 +421,25 @@
     <t>anx</t>
   </si>
   <si>
-    <t>Yieldlab</t>
-  </si>
-  <si>
-    <t>ydl</t>
-  </si>
-  <si>
     <t>Yieldmo</t>
   </si>
   <si>
     <t>mo</t>
   </si>
   <si>
-    <t>YOC</t>
-  </si>
-  <si>
-    <t>yoc</t>
-  </si>
-  <si>
     <t>mgi</t>
+  </si>
+  <si>
+    <t>Yahoo Exchange</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>Lemma</t>
+  </si>
+  <si>
+    <t>lm</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -542,12 +542,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -871,7 +878,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1473,6 +1480,9 @@
       <c r="F20" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="H20" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="I20" s="6" t="s">
         <v>17</v>
       </c>
@@ -1615,6 +1625,9 @@
       <c r="F24" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="H24" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="I24" s="6" t="s">
         <v>17</v>
       </c>
@@ -1684,6 +1697,9 @@
       <c r="F26" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
       <c r="I26" s="6" t="s">
         <v>17</v>
       </c>
@@ -1760,71 +1776,50 @@
       </c>
     </row>
     <row r="29" spans="1:16" ht="15">
-      <c r="A29" s="4" t="s">
-        <v>72</v>
+      <c r="A29" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="10"/>
+      <c r="K29" s="5"/>
+      <c r="O29" s="5"/>
     </row>
     <row r="30" spans="1:16" ht="15">
       <c r="A30" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="J30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="6"/>
       <c r="M30" s="5" t="s">
         <v>17</v>
       </c>
@@ -1832,69 +1827,79 @@
         <v>17</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15">
       <c r="A31" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="O31" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15">
       <c r="A32" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>17</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="5"/>
       <c r="O32" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15">
       <c r="A33" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1904,12 +1909,6 @@
       <c r="F33" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="I33" s="6" t="s">
         <v>17</v>
       </c>
@@ -1928,205 +1927,206 @@
     </row>
     <row r="34" spans="1:16" ht="15">
       <c r="A34" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15">
+      <c r="A35" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L34" s="5"/>
-      <c r="O34" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="15">
-      <c r="A35" s="5" t="s">
+      <c r="C35" s="5"/>
+      <c r="D35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="5"/>
+      <c r="O35" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15">
+      <c r="A36" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B36" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N35" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="15">
-      <c r="A36" s="4" t="s">
+      <c r="C36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="I36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="N36" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15">
+      <c r="A37" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B37" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="15">
-      <c r="A37" s="5" t="s">
+      <c r="C37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15">
+      <c r="A38" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N37" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="15">
-      <c r="A38" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="C38" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="D38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="I38" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J38" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K38" s="6"/>
-      <c r="L38" s="5"/>
-      <c r="O38" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>17</v>
+      <c r="K38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="15">
       <c r="A39" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
       <c r="I39" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="6"/>
+      <c r="J39" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="K39" s="6"/>
       <c r="L39" s="5"/>
-      <c r="N39" s="5"/>
       <c r="O39" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15">
       <c r="A40" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>17</v>
@@ -2134,8 +2134,12 @@
       <c r="D40" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="E40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="I40" s="6" t="s">
         <v>17</v>
       </c>
@@ -2149,10 +2153,10 @@
     </row>
     <row r="41" spans="1:16" ht="15">
       <c r="A41" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>17</v>
@@ -2160,37 +2164,27 @@
       <c r="D41" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N41" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="11"/>
       <c r="O41" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="15">
       <c r="A42" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>17</v>
@@ -2204,29 +2198,35 @@
       <c r="F42" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I42" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L42" s="5"/>
-      <c r="N42" s="5" t="s">
+      <c r="H42" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" s="12"/>
+      <c r="N42" s="11" t="s">
         <v>17</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15">
       <c r="A43" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>17</v>
@@ -2240,16 +2240,19 @@
       <c r="F43" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H43" s="5"/>
-      <c r="I43" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="N43" s="5" t="s">
+      <c r="H43" s="12"/>
+      <c r="I43" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" s="11"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="11" t="s">
         <v>17</v>
       </c>
       <c r="O43" s="5" t="s">
@@ -2258,10 +2261,10 @@
     </row>
     <row r="44" spans="1:16" ht="15">
       <c r="A44" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>17</v>
@@ -2275,636 +2278,729 @@
       <c r="F44" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G44" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K44" s="6"/>
-      <c r="L44" s="5"/>
-      <c r="N44" s="5"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="O44" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15">
       <c r="A45" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="12"/>
+      <c r="I45" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" s="13"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15">
+      <c r="A46" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B46" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="I45" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="5"/>
-      <c r="N45" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O45" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="15">
-      <c r="A46" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
+      <c r="C46" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="6"/>
-      <c r="K46" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L46" s="5" t="s">
+      <c r="H46" s="12"/>
+      <c r="I46" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="11" t="s">
         <v>17</v>
       </c>
       <c r="O46" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P46" s="5" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="47" spans="1:16" ht="15">
-      <c r="A47" s="4" t="s">
-        <v>107</v>
+      <c r="A47" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>17</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
       <c r="G47" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="5"/>
-      <c r="I47" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N47" s="5"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="16"/>
+      <c r="K47" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
       <c r="O47" s="5" t="s">
         <v>18</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="15">
       <c r="A48" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="11"/>
+      <c r="I48" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M48" s="15"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P48" s="5"/>
+    </row>
+    <row r="49" spans="1:16" ht="15">
+      <c r="A49" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B49" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K48" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L48" s="5"/>
-      <c r="N48" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O48" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="15">
-      <c r="A49" s="4" t="s">
+      <c r="C49" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="15"/>
+      <c r="K49" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" s="14"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="15">
+      <c r="A50" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B50" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L49" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M49" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N49" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O49" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="15">
-      <c r="A50" s="5" t="s">
+      <c r="C50" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="15"/>
+      <c r="H50" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M50" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N50" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="15">
+      <c r="A51" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B51" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="I50" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="6"/>
-      <c r="N50" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O50" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="15">
-      <c r="A51" s="4" t="s">
+      <c r="C51" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="16"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="15">
+      <c r="A52" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B52" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L51" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M51" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N51" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O51" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="15">
-      <c r="A52" s="4" t="s">
+      <c r="C52" s="16"/>
+      <c r="D52" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M52" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N52" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O52" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="15">
+      <c r="A53" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B53" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="5"/>
-      <c r="N52" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O52" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="15">
-      <c r="A53" s="4" t="s">
+      <c r="C53" s="16"/>
+      <c r="D53" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="15">
+      <c r="A54" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B54" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K53" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N53" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O53" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="15">
-      <c r="A54" s="4" t="s">
+      <c r="C54" s="16"/>
+      <c r="D54" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N54" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="15">
+      <c r="A55" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B55" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="I54" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="15">
-      <c r="A55" s="5" t="s">
+      <c r="C55" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="15">
+      <c r="A56" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B56" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I55" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J55" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K55" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L55" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N55" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O55" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="15">
-      <c r="A56" s="4" t="s">
+      <c r="C56" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L56" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M56" s="15"/>
+      <c r="N56" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="15">
+      <c r="A57" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B57" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L56" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N56" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O56" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="15">
-      <c r="A57" s="4" t="s">
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="15"/>
+      <c r="H57" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L57" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M57" s="15"/>
+      <c r="N57" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="15">
+      <c r="A58" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B58" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O57" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="15">
-      <c r="A58" s="5" t="s">
+      <c r="C58" s="16"/>
+      <c r="D58" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="15">
+      <c r="A59" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B59" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J58" s="11"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="N58" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O58" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="15">
-      <c r="A59" s="5" t="s">
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="16"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O59" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="15">
+      <c r="A60" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B60" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K59" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L59" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O59" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="15">
-      <c r="A60" s="5" t="s">
+      <c r="C60" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K60" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L60" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="15">
+      <c r="A61" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L61" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="15">
+      <c r="A62" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B62" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O60" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="15">
-      <c r="A61" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="I61" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J61" s="6"/>
-      <c r="K61" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L61" s="5"/>
-      <c r="O61" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="15">
-      <c r="A62" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="I62" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J62" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
+      <c r="C62" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" s="16"/>
+      <c r="K62" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L62" s="14"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
       <c r="O62" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="15">
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-    </row>
-    <row r="64" spans="1:15" ht="15">
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+    </row>
+    <row r="64" spans="1:16" ht="15">
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-    </row>
-    <row r="65" spans="3:10" ht="15">
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+    </row>
+    <row r="65" spans="3:14" ht="15">
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-    </row>
-    <row r="66" spans="3:10" ht="15">
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+    </row>
+    <row r="66" spans="3:14" ht="15">
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-    </row>
-    <row r="67" spans="3:10" ht="15">
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+    </row>
+    <row r="67" spans="3:14" ht="15">
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-    </row>
-    <row r="68" spans="3:10" ht="15">
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+    </row>
+    <row r="68" spans="3:14" ht="15">
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
@@ -2912,7 +3008,7 @@
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
     </row>
-    <row r="69" spans="3:10" ht="15">
+    <row r="69" spans="3:14" ht="15">
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
@@ -2920,7 +3016,7 @@
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
     </row>
-    <row r="70" spans="3:10" ht="15">
+    <row r="70" spans="3:14" ht="15">
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -2928,7 +3024,7 @@
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
     </row>
-    <row r="71" spans="3:10" ht="15">
+    <row r="71" spans="3:14" ht="15">
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
@@ -2936,7 +3032,7 @@
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
     </row>
-    <row r="72" spans="3:10" ht="15">
+    <row r="72" spans="3:14" ht="15">
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
@@ -2944,7 +3040,7 @@
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
     </row>
-    <row r="73" spans="3:10" ht="15">
+    <row r="73" spans="3:14" ht="15">
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -2952,7 +3048,7 @@
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="3:10" ht="15">
+    <row r="74" spans="3:14" ht="15">
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
@@ -2960,7 +3056,7 @@
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="3:10" ht="15">
+    <row r="75" spans="3:14" ht="15">
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -2968,7 +3064,7 @@
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
     </row>
-    <row r="76" spans="3:10" ht="15">
+    <row r="76" spans="3:14" ht="15">
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -2976,7 +3072,7 @@
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
     </row>
-    <row r="77" spans="3:10" ht="15">
+    <row r="77" spans="3:14" ht="15">
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
@@ -2984,7 +3080,7 @@
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
     </row>
-    <row r="78" spans="3:10" ht="15">
+    <row r="78" spans="3:14" ht="15">
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
@@ -2992,7 +3088,7 @@
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
     </row>
-    <row r="79" spans="3:10" ht="15">
+    <row r="79" spans="3:14" ht="15">
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -3000,7 +3096,7 @@
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
     </row>
-    <row r="80" spans="3:10" ht="15">
+    <row r="80" spans="3:14" ht="15">
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
@@ -3474,12 +3570,12 @@
     <row r="149" spans="3:5" ht="15">
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
-      <c r="E149" s="13"/>
+      <c r="E149" s="10"/>
     </row>
     <row r="150" spans="3:5" ht="15">
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
-      <c r="E150" s="13"/>
+      <c r="E150" s="10"/>
     </row>
     <row r="151" spans="3:5" ht="15">
       <c r="C151" s="6"/>
@@ -3504,12 +3600,12 @@
     <row r="155" spans="3:5" ht="15">
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
-      <c r="E155" s="13"/>
+      <c r="E155" s="10"/>
     </row>
     <row r="156" spans="3:5" ht="15">
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
-      <c r="E156" s="13"/>
+      <c r="E156" s="10"/>
     </row>
     <row r="157" spans="3:5" ht="15">
       <c r="C157" s="6"/>
@@ -3904,17 +4000,17 @@
     <row r="235" spans="3:5" ht="15">
       <c r="C235" s="6"/>
       <c r="D235" s="6"/>
-      <c r="E235" s="13"/>
+      <c r="E235" s="10"/>
     </row>
     <row r="236" spans="3:5" ht="15">
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
-      <c r="E236" s="13"/>
+      <c r="E236" s="10"/>
     </row>
     <row r="237" spans="3:5" ht="15">
       <c r="C237" s="6"/>
       <c r="D237" s="6"/>
-      <c r="E237" s="13"/>
+      <c r="E237" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/beeswax/Beeswax Exchange Profile.xlsx
+++ b/beeswax/Beeswax Exchange Profile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwunchoy/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB656F41-4EF0-9C4D-AAA4-331490719634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DFC7C71-38CB-6B40-9977-B9915BC2B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="25600" windowHeight="26960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exchange Profile" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="142">
   <si>
     <t>Exchange Abbreviation</t>
   </si>
@@ -440,6 +440,12 @@
   </si>
   <si>
     <t>lm</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>amzn</t>
   </si>
 </sst>
 </file>
@@ -872,13 +878,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z237"/>
+  <dimension ref="A1:Z238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J36" sqref="J36"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1241,47 +1247,47 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="15">
-      <c r="A12" s="4" t="s">
-        <v>37</v>
+      <c r="A12" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="5"/>
+        <v>141</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="O12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15">
       <c r="A13" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
         <v>17</v>
       </c>
@@ -1291,28 +1297,33 @@
       <c r="I13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="N13" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="J13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="5"/>
       <c r="O13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15">
       <c r="A14" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="D14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F14" s="6" t="s">
         <v>17</v>
       </c>
@@ -1322,54 +1333,56 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
+      <c r="N14" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="O14" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="O15" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15">
+      <c r="A16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="15">
-      <c r="A16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="I16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="N16" s="5" t="s">
+      <c r="K16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="O16" s="5" t="s">
@@ -1378,120 +1391,108 @@
     </row>
     <row r="17" spans="1:16" ht="15">
       <c r="A17" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="5"/>
       <c r="F17" s="6"/>
       <c r="I17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="5"/>
+      <c r="L17" s="6"/>
+      <c r="N17" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="O17" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15">
       <c r="A18" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="F18" s="6"/>
       <c r="I18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="5"/>
       <c r="O18" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15">
       <c r="A19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15">
+      <c r="A20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="I19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="5"/>
-      <c r="N19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="15">
-      <c r="A20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="C20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="F20" s="6"/>
       <c r="I20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="5"/>
       <c r="N20" s="5" t="s">
         <v>17</v>
       </c>
@@ -1501,146 +1502,143 @@
     </row>
     <row r="21" spans="1:16" ht="15">
       <c r="A21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15">
+      <c r="A22" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="15">
-      <c r="A22" s="4" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15">
+      <c r="A23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="15">
-      <c r="A23" s="5" t="s">
+      <c r="C23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15">
+      <c r="A24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="15">
-      <c r="A24" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="5" t="s">
+      <c r="C24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>17</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N24" s="5" t="s">
         <v>17</v>
       </c>
       <c r="O24" s="5" t="s">
@@ -1649,15 +1647,17 @@
     </row>
     <row r="25" spans="1:16" ht="15">
       <c r="A25" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="E25" s="5" t="s">
         <v>17</v>
       </c>
@@ -1670,11 +1670,15 @@
       <c r="I25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="5"/>
+      <c r="J25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="N25" s="5" t="s">
         <v>17</v>
       </c>
@@ -1684,12 +1688,14 @@
     </row>
     <row r="26" spans="1:16" ht="15">
       <c r="A26" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="D26" s="6"/>
       <c r="E26" s="5" t="s">
         <v>17</v>
@@ -1697,7 +1703,7 @@
       <c r="F26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I26" s="6" t="s">
@@ -1706,12 +1712,10 @@
       <c r="J26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="K26" s="6"/>
       <c r="L26" s="5"/>
       <c r="N26" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O26" s="5" t="s">
         <v>18</v>
@@ -1719,148 +1723,142 @@
     </row>
     <row r="27" spans="1:16" ht="15">
       <c r="A27" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="5"/>
+      <c r="N27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15">
+      <c r="A28" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O27" s="5" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="5" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="15">
-      <c r="A28" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="I28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15">
       <c r="A29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="I29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="K29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15">
+      <c r="A30" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="5"/>
-      <c r="O29" s="5"/>
-    </row>
-    <row r="30" spans="1:16" ht="15">
-      <c r="A30" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="10"/>
+      <c r="K30" s="5"/>
+      <c r="O30" s="5"/>
     </row>
     <row r="31" spans="1:16" ht="15">
       <c r="A31" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="J31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="6"/>
       <c r="M31" s="5" t="s">
         <v>17</v>
       </c>
@@ -1868,69 +1866,79 @@
         <v>17</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15">
       <c r="A32" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="O32" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15">
       <c r="A33" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>17</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="5"/>
       <c r="O33" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15">
       <c r="A34" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1940,12 +1948,6 @@
       <c r="F34" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="I34" s="6" t="s">
         <v>17</v>
       </c>
@@ -1964,199 +1966,206 @@
     </row>
     <row r="35" spans="1:16" ht="15">
       <c r="A35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15">
+      <c r="A36" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B36" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L35" s="5"/>
-      <c r="O35" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="15">
-      <c r="A36" s="5" t="s">
+      <c r="C36" s="5"/>
+      <c r="D36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="5"/>
+      <c r="O36" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15">
+      <c r="A37" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B37" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="5"/>
-      <c r="I36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="N36" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="15">
-      <c r="A37" s="4" t="s">
+      <c r="C37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="I37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="N37" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15">
+      <c r="A38" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O37" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="15">
-      <c r="A38" s="5" t="s">
+      <c r="C38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15">
+      <c r="A39" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B39" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N38" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="15">
-      <c r="A39" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="C39" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="D39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="I39" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J39" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K39" s="6"/>
-      <c r="L39" s="5"/>
-      <c r="O39" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P39" s="5" t="s">
-        <v>17</v>
+      <c r="K39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15">
       <c r="A40" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
       <c r="I40" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J40" s="6"/>
+      <c r="J40" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="K40" s="6"/>
       <c r="L40" s="5"/>
-      <c r="N40" s="5"/>
       <c r="O40" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="15">
       <c r="A41" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>17</v>
@@ -2164,27 +2173,29 @@
       <c r="D41" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="11"/>
+      <c r="E41" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="5"/>
+      <c r="N41" s="5"/>
       <c r="O41" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="15">
       <c r="A42" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>17</v>
@@ -2192,41 +2203,27 @@
       <c r="D42" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>17</v>
-      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="H42" s="12"/>
       <c r="I42" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J42" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K42" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L42" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="11"/>
       <c r="M42" s="12"/>
-      <c r="N42" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="N42" s="11"/>
       <c r="O42" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15">
       <c r="A43" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>17</v>
@@ -2240,7 +2237,9 @@
       <c r="F43" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H43" s="12"/>
+      <c r="H43" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="I43" s="13" t="s">
         <v>17</v>
       </c>
@@ -2250,21 +2249,23 @@
       <c r="K43" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="L43" s="11"/>
+      <c r="L43" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="M43" s="12"/>
       <c r="N43" s="11" t="s">
         <v>17</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="15">
       <c r="A44" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>17</v>
@@ -2278,14 +2279,16 @@
       <c r="F44" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H44" s="11"/>
+      <c r="H44" s="12"/>
       <c r="I44" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J44" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K44" s="11"/>
+      <c r="K44" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="L44" s="11"/>
       <c r="M44" s="12"/>
       <c r="N44" s="11" t="s">
@@ -2297,10 +2300,10 @@
     </row>
     <row r="45" spans="1:16" ht="15">
       <c r="A45" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>17</v>
@@ -2314,30 +2317,29 @@
       <c r="F45" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G45" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" s="12"/>
+      <c r="H45" s="11"/>
       <c r="I45" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J45" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K45" s="13"/>
+      <c r="K45" s="11"/>
       <c r="L45" s="11"/>
       <c r="M45" s="12"/>
-      <c r="N45" s="11"/>
+      <c r="N45" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="O45" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15">
       <c r="A46" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>17</v>
@@ -2345,239 +2347,237 @@
       <c r="D46" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
+      <c r="E46" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="H46" s="12"/>
       <c r="I46" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J46" s="13"/>
+      <c r="J46" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="K46" s="13"/>
       <c r="L46" s="11"/>
       <c r="M46" s="12"/>
-      <c r="N46" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="N46" s="11"/>
       <c r="O46" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="15">
-      <c r="A47" s="5" t="s">
-        <v>105</v>
+      <c r="A47" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
+        <v>104</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="H47" s="12"/>
-      <c r="I47" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" s="16"/>
-      <c r="K47" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="L47" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
+      <c r="I47" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="O47" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P47" s="5" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="48" spans="1:16" ht="15">
-      <c r="A48" s="4" t="s">
-        <v>107</v>
+      <c r="A48" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>17</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
       <c r="G48" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="11"/>
+      <c r="H48" s="12"/>
       <c r="I48" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J48" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K48" s="14"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="L48" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M48" s="15"/>
-      <c r="N48" s="14"/>
+      <c r="N48" s="15"/>
       <c r="O48" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P48" s="5"/>
+      <c r="P48" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="49" spans="1:16" ht="15">
       <c r="A49" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="6"/>
+      <c r="D49" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="E49" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H49" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="G49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="11"/>
       <c r="I49" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J49" s="15"/>
-      <c r="K49" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="L49" s="14"/>
+      <c r="J49" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="M49" s="15"/>
-      <c r="N49" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="N49" s="14"/>
       <c r="O49" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="P49" s="5"/>
     </row>
     <row r="50" spans="1:16" ht="15">
       <c r="A50" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="15"/>
+      <c r="K50" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" s="14"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="15">
+      <c r="A51" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B51" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C50" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" s="15"/>
-      <c r="H50" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K50" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="L50" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M50" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="N50" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="O50" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="15">
-      <c r="A51" s="5" t="s">
+      <c r="C51" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="15"/>
+      <c r="H51" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M51" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N51" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="15">
+      <c r="A52" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B52" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C51" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J51" s="16"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="O51" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="15">
-      <c r="A52" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16" t="s">
-        <v>17</v>
-      </c>
+      <c r="C52" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="16"/>
       <c r="E52" s="16"/>
-      <c r="F52" s="16" t="s">
-        <v>17</v>
-      </c>
+      <c r="F52" s="16"/>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
       <c r="I52" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J52" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K52" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="L52" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M52" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="J52" s="16"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
       <c r="N52" s="14" t="s">
         <v>17</v>
       </c>
@@ -2587,10 +2587,10 @@
     </row>
     <row r="53" spans="1:16" ht="15">
       <c r="A53" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="16" t="s">
@@ -2605,10 +2605,18 @@
       <c r="I53" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="15"/>
+      <c r="J53" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M53" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="N53" s="14" t="s">
         <v>17</v>
       </c>
@@ -2618,10 +2626,10 @@
     </row>
     <row r="54" spans="1:16" ht="15">
       <c r="A54" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C54" s="16"/>
       <c r="D54" s="16" t="s">
@@ -2636,16 +2644,10 @@
       <c r="I54" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J54" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K54" s="16" t="s">
-        <v>17</v>
-      </c>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
       <c r="L54" s="14"/>
-      <c r="M54" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="M54" s="15"/>
       <c r="N54" s="14" t="s">
         <v>17</v>
       </c>
@@ -2655,107 +2657,105 @@
     </row>
     <row r="55" spans="1:16" ht="15">
       <c r="A55" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N55" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="15">
+      <c r="A56" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B56" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I55" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="15">
-      <c r="A56" s="5" t="s">
+      <c r="C56" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="15">
+      <c r="A57" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B57" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C56" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J56" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K56" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="L56" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M56" s="15"/>
-      <c r="N56" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="O56" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="15">
-      <c r="A57" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" s="15"/>
-      <c r="H57" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I57" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J57" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K57" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="L57" s="16" t="s">
+      <c r="C57" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L57" s="17" t="s">
         <v>17</v>
       </c>
       <c r="M57" s="15"/>
@@ -2768,83 +2768,85 @@
     </row>
     <row r="58" spans="1:16" ht="15">
       <c r="A58" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" s="15"/>
+      <c r="H58" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M58" s="15"/>
+      <c r="N58" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O58" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="15">
+      <c r="A59" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B59" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J58" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" ht="15">
-      <c r="A59" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>130</v>
-      </c>
       <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16" t="s">
-        <v>17</v>
-      </c>
+      <c r="D59" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="16"/>
       <c r="F59" s="16" t="s">
         <v>17</v>
       </c>
       <c r="G59" s="15"/>
-      <c r="H59" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="H59" s="15"/>
       <c r="I59" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J59" s="16"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
+      <c r="J59" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="M59" s="15"/>
-      <c r="N59" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="N59" s="15"/>
       <c r="O59" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="15">
       <c r="A60" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>17</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
       <c r="E60" s="16" t="s">
         <v>17</v>
       </c>
@@ -2852,31 +2854,29 @@
         <v>17</v>
       </c>
       <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
+      <c r="H60" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="I60" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J60" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K60" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="L60" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="J60" s="16"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
       <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
+      <c r="N60" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="O60" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="15">
       <c r="A61" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C61" s="16" t="s">
         <v>17</v>
@@ -2884,8 +2884,12 @@
       <c r="D61" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
+      <c r="E61" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="G61" s="15"/>
       <c r="H61" s="15"/>
       <c r="I61" s="16" t="s">
@@ -2905,52 +2909,75 @@
       <c r="O61" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P61" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="62" spans="1:16" ht="15">
-      <c r="A62" s="4" t="s">
-        <v>133</v>
+      <c r="A62" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
-      <c r="I62" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J62" s="16"/>
-      <c r="K62" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="L62" s="14"/>
+      <c r="I62" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L62" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="M62" s="15"/>
       <c r="N62" s="15"/>
       <c r="O62" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="15">
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="19"/>
+      <c r="A63" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" s="16"/>
+      <c r="K63" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L63" s="14"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="64" spans="1:16" ht="15">
       <c r="C64" s="6"/>
@@ -3005,8 +3032,12 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
     </row>
     <row r="69" spans="3:14" ht="15">
       <c r="C69" s="6"/>
@@ -3436,6 +3467,9 @@
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="I122" s="6"/>
+      <c r="J122" s="6"/>
     </row>
     <row r="123" spans="3:10" ht="15">
       <c r="C123" s="6"/>
@@ -3570,7 +3604,7 @@
     <row r="149" spans="3:5" ht="15">
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
-      <c r="E149" s="10"/>
+      <c r="E149" s="6"/>
     </row>
     <row r="150" spans="3:5" ht="15">
       <c r="C150" s="6"/>
@@ -3580,7 +3614,7 @@
     <row r="151" spans="3:5" ht="15">
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
+      <c r="E151" s="10"/>
     </row>
     <row r="152" spans="3:5" ht="15">
       <c r="C152" s="6"/>
@@ -3600,7 +3634,7 @@
     <row r="155" spans="3:5" ht="15">
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
-      <c r="E155" s="10"/>
+      <c r="E155" s="6"/>
     </row>
     <row r="156" spans="3:5" ht="15">
       <c r="C156" s="6"/>
@@ -3610,7 +3644,7 @@
     <row r="157" spans="3:5" ht="15">
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
-      <c r="E157" s="6"/>
+      <c r="E157" s="10"/>
     </row>
     <row r="158" spans="3:5" ht="15">
       <c r="C158" s="6"/>
@@ -4000,7 +4034,7 @@
     <row r="235" spans="3:5" ht="15">
       <c r="C235" s="6"/>
       <c r="D235" s="6"/>
-      <c r="E235" s="10"/>
+      <c r="E235" s="6"/>
     </row>
     <row r="236" spans="3:5" ht="15">
       <c r="C236" s="6"/>
@@ -4011,6 +4045,11 @@
       <c r="C237" s="6"/>
       <c r="D237" s="6"/>
       <c r="E237" s="10"/>
+    </row>
+    <row r="238" spans="3:5" ht="15">
+      <c r="C238" s="6"/>
+      <c r="D238" s="6"/>
+      <c r="E238" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/beeswax/Beeswax Exchange Profile.xlsx
+++ b/beeswax/Beeswax Exchange Profile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwunchoy/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DFC7C71-38CB-6B40-9977-B9915BC2B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA41CA6F-D067-F54A-B4FE-BA7134106BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="25600" windowHeight="26960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="142">
   <si>
-    <t>Exchange Abbreviation</t>
-  </si>
-  <si>
     <t>Web Banner</t>
   </si>
   <si>
@@ -446,6 +443,9 @@
   </si>
   <si>
     <t>amzn</t>
+  </si>
+  <si>
+    <t>Exchange Abbreviation (case-sensitive)</t>
   </si>
 </sst>
 </file>
@@ -884,61 +884,62 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="29.1640625" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="57.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -953,882 +954,882 @@
     </row>
     <row r="2" spans="1:26" ht="15">
       <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="I2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L2" s="5"/>
       <c r="O2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15">
       <c r="A3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="O3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15">
       <c r="A4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L4" s="5"/>
       <c r="O4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15">
       <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15">
       <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="O6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15">
       <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="O7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15">
       <c r="A8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="C8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="I8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" s="6"/>
       <c r="N8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15">
       <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15">
       <c r="A10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="C10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="6"/>
       <c r="I10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L10" s="5"/>
       <c r="O10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15">
       <c r="A11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15">
       <c r="A12" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>141</v>
-      </c>
       <c r="C12" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="H12" s="5"/>
       <c r="I12" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15">
       <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L13" s="5"/>
       <c r="O13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15">
       <c r="A14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="C14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="N14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15">
       <c r="A15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="O15" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15">
       <c r="A16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15">
       <c r="A17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
       <c r="I17" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="N17" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15">
       <c r="A18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="C18" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="I18" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="5"/>
       <c r="O18" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15">
       <c r="A19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15">
       <c r="A20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="C20" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="6"/>
       <c r="I20" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="5"/>
       <c r="N20" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15">
       <c r="A21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="C21" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15">
       <c r="A22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15">
       <c r="A23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="C23" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15">
       <c r="A24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="C24" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15">
       <c r="A25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="C25" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15">
       <c r="A26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="C26" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="5"/>
       <c r="N26" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15">
       <c r="A27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
       <c r="E27" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L27" s="5"/>
       <c r="N27" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15">
       <c r="A28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15">
       <c r="A29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="C29" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="I29" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15">
       <c r="A30" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="5"/>
@@ -1836,92 +1837,92 @@
     </row>
     <row r="31" spans="1:16" ht="15">
       <c r="A31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15">
       <c r="A32" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="C32" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15">
       <c r="A33" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -1930,284 +1931,284 @@
       <c r="K33" s="6"/>
       <c r="L33" s="5"/>
       <c r="O33" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15">
       <c r="A34" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15">
       <c r="A35" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="15">
       <c r="A36" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L36" s="5"/>
       <c r="O36" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="15">
       <c r="A37" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="C37" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G37" s="5"/>
       <c r="I37" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="N37" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15">
       <c r="A38" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="C38" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="15">
       <c r="A39" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="C39" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15">
       <c r="A40" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="C40" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="I40" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K40" s="6"/>
       <c r="L40" s="5"/>
       <c r="O40" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="15">
       <c r="A41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="C41" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="15">
       <c r="A42" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="C42" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="H42" s="12"/>
       <c r="I42" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
@@ -2215,356 +2216,356 @@
       <c r="M42" s="12"/>
       <c r="N42" s="11"/>
       <c r="O42" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15">
       <c r="A43" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="C43" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M43" s="12"/>
       <c r="N43" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="15">
       <c r="A44" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="C44" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L44" s="11"/>
       <c r="M44" s="12"/>
       <c r="N44" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15">
       <c r="A45" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>100</v>
-      </c>
       <c r="C45" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H45" s="11"/>
       <c r="I45" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
       <c r="M45" s="12"/>
       <c r="N45" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15">
       <c r="A46" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="C46" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K46" s="13"/>
       <c r="L46" s="11"/>
       <c r="M46" s="12"/>
       <c r="N46" s="11"/>
       <c r="O46" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="15">
       <c r="A47" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="C47" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="H47" s="12"/>
       <c r="I47" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J47" s="13"/>
       <c r="K47" s="13"/>
       <c r="L47" s="11"/>
       <c r="M47" s="12"/>
       <c r="N47" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="15">
       <c r="A48" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J48" s="16"/>
       <c r="K48" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L48" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M48" s="15"/>
       <c r="N48" s="15"/>
       <c r="O48" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="15">
       <c r="A49" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="C49" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H49" s="11"/>
       <c r="I49" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K49" s="14"/>
       <c r="L49" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M49" s="15"/>
       <c r="N49" s="14"/>
       <c r="O49" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P49" s="5"/>
     </row>
     <row r="50" spans="1:16" ht="15">
       <c r="A50" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="C50" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I50" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J50" s="15"/>
       <c r="K50" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L50" s="14"/>
       <c r="M50" s="15"/>
       <c r="N50" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="15">
       <c r="A51" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B51" s="14" t="s">
-        <v>112</v>
-      </c>
       <c r="C51" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G51" s="15"/>
       <c r="H51" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I51" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L51" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M51" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N51" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="15">
       <c r="A52" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B52" s="14" t="s">
-        <v>114</v>
-      </c>
       <c r="C52" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
@@ -2572,147 +2573,147 @@
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
       <c r="I52" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J52" s="16"/>
       <c r="K52" s="15"/>
       <c r="L52" s="15"/>
       <c r="M52" s="15"/>
       <c r="N52" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15">
       <c r="A53" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="14" t="s">
         <v>115</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>116</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E53" s="16"/>
       <c r="F53" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
       <c r="I53" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J53" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K53" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L53" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N53" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="15">
       <c r="A54" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="14" t="s">
         <v>117</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>118</v>
       </c>
       <c r="C54" s="16"/>
       <c r="D54" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E54" s="16"/>
       <c r="F54" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
       <c r="I54" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J54" s="16"/>
       <c r="K54" s="16"/>
       <c r="L54" s="14"/>
       <c r="M54" s="15"/>
       <c r="N54" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="15">
       <c r="A55" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="14" t="s">
         <v>119</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>120</v>
       </c>
       <c r="C55" s="16"/>
       <c r="D55" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E55" s="16"/>
       <c r="F55" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
       <c r="I55" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J55" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K55" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L55" s="14"/>
       <c r="M55" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N55" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="15">
       <c r="A56" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B56" s="14" t="s">
-        <v>122</v>
-      </c>
       <c r="C56" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E56" s="16"/>
       <c r="F56" s="16"/>
       <c r="G56" s="15"/>
       <c r="H56" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I56" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J56" s="16"/>
       <c r="K56" s="16"/>
@@ -2720,263 +2721,263 @@
       <c r="M56" s="15"/>
       <c r="N56" s="14"/>
       <c r="O56" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="15">
       <c r="A57" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B57" s="14" t="s">
-        <v>124</v>
-      </c>
       <c r="C57" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H57" s="15"/>
       <c r="I57" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J57" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K57" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L57" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M57" s="15"/>
       <c r="N57" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="15">
       <c r="A58" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="14" t="s">
         <v>125</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>126</v>
       </c>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
       <c r="E58" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G58" s="15"/>
       <c r="H58" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I58" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J58" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K58" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L58" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M58" s="15"/>
       <c r="N58" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="15">
       <c r="A59" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>128</v>
       </c>
       <c r="C59" s="16"/>
       <c r="D59" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E59" s="16"/>
       <c r="F59" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
       <c r="I59" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J59" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K59" s="14"/>
       <c r="L59" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M59" s="15"/>
       <c r="N59" s="15"/>
       <c r="O59" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="15">
       <c r="A60" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>130</v>
       </c>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
       <c r="E60" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G60" s="15"/>
       <c r="H60" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I60" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J60" s="16"/>
       <c r="K60" s="20"/>
       <c r="L60" s="20"/>
       <c r="M60" s="15"/>
       <c r="N60" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O60" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="15">
       <c r="A61" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B61" s="14" t="s">
-        <v>132</v>
-      </c>
       <c r="C61" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G61" s="15"/>
       <c r="H61" s="15"/>
       <c r="I61" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J61" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K61" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L61" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M61" s="15"/>
       <c r="N61" s="15"/>
       <c r="O61" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="15">
       <c r="A62" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B62" s="14" t="s">
-        <v>137</v>
-      </c>
       <c r="C62" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
       <c r="I62" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J62" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K62" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L62" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M62" s="15"/>
       <c r="N62" s="15"/>
       <c r="O62" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="15">
       <c r="A63" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="B63" s="14" t="s">
-        <v>134</v>
-      </c>
       <c r="C63" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
       <c r="G63" s="15"/>
       <c r="H63" s="15"/>
       <c r="I63" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J63" s="16"/>
       <c r="K63" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L63" s="14"/>
       <c r="M63" s="15"/>
       <c r="N63" s="15"/>
       <c r="O63" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="15">

--- a/beeswax/Beeswax Exchange Profile.xlsx
+++ b/beeswax/Beeswax Exchange Profile.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwunchoy/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tchen777/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA41CA6F-D067-F54A-B4FE-BA7134106BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B73CC70-B5BB-B942-9724-5CAB0368F659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="25600" windowHeight="26960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="25600" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exchange Profile" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Exchange Profile'!$P$1:$P$240</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="146">
   <si>
     <t>Web Banner</t>
   </si>
@@ -446,6 +449,18 @@
   </si>
   <si>
     <t>Exchange Abbreviation (case-sensitive)</t>
+  </si>
+  <si>
+    <t>Colossus</t>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <t>The Media Grid</t>
+  </si>
+  <si>
+    <t>tmg</t>
   </si>
 </sst>
 </file>
@@ -464,27 +479,32 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -499,6 +519,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -878,13 +899,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z238"/>
+  <dimension ref="A1:Z240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1367,49 +1388,52 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="15">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="O16" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15">
+      <c r="A17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="15">
-      <c r="A17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="N17" s="5" t="s">
+      <c r="K17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="O17" s="5" t="s">
@@ -1418,120 +1442,108 @@
     </row>
     <row r="18" spans="1:16" ht="15">
       <c r="A18" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="5"/>
       <c r="F18" s="6"/>
       <c r="I18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="5"/>
+      <c r="L18" s="6"/>
+      <c r="N18" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="O18" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15">
       <c r="A19" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="F19" s="6"/>
       <c r="I19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="5"/>
       <c r="O19" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15">
       <c r="A20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15">
+      <c r="A21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="I20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="5"/>
-      <c r="N20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="15">
-      <c r="A21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="C21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="D21" s="6"/>
       <c r="E21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="F21" s="6"/>
       <c r="I21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="5"/>
       <c r="N21" s="5" t="s">
         <v>16</v>
       </c>
@@ -1541,146 +1553,143 @@
     </row>
     <row r="22" spans="1:16" ht="15">
       <c r="A22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15">
+      <c r="A23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="15">
-      <c r="A23" s="4" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15">
+      <c r="A24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="15">
-      <c r="A24" s="5" t="s">
+      <c r="C24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15">
+      <c r="A25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="15">
-      <c r="A25" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="5" t="s">
+      <c r="C25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N25" s="5" t="s">
         <v>16</v>
       </c>
       <c r="O25" s="5" t="s">
@@ -1689,15 +1698,17 @@
     </row>
     <row r="26" spans="1:16" ht="15">
       <c r="A26" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="E26" s="5" t="s">
         <v>16</v>
       </c>
@@ -1710,11 +1721,15 @@
       <c r="I26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="5"/>
+      <c r="J26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="N26" s="5" t="s">
         <v>16</v>
       </c>
@@ -1724,12 +1739,14 @@
     </row>
     <row r="27" spans="1:16" ht="15">
       <c r="A27" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D27" s="6"/>
       <c r="E27" s="5" t="s">
         <v>16</v>
@@ -1737,7 +1754,7 @@
       <c r="F27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I27" s="6" t="s">
@@ -1746,12 +1763,10 @@
       <c r="J27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="K27" s="6"/>
       <c r="L27" s="5"/>
       <c r="N27" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O27" s="5" t="s">
         <v>17</v>
@@ -1759,148 +1774,142 @@
     </row>
     <row r="28" spans="1:16" ht="15">
       <c r="A28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="N28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15">
+      <c r="A29" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O28" s="5" t="s">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" s="5" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="15">
-      <c r="A29" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="I29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15">
       <c r="A30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="I30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="6"/>
+      <c r="K30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15">
+      <c r="A31" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30" s="10"/>
-      <c r="K30" s="5"/>
-      <c r="O30" s="5"/>
-    </row>
-    <row r="31" spans="1:16" ht="15">
-      <c r="A31" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L31" s="6"/>
-      <c r="M31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O31" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="10"/>
+      <c r="K31" s="5"/>
+      <c r="O31" s="5"/>
     </row>
     <row r="32" spans="1:16" ht="15">
       <c r="A32" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="J32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="6"/>
       <c r="M32" s="5" t="s">
         <v>16</v>
       </c>
@@ -1908,69 +1917,79 @@
         <v>16</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15">
       <c r="A33" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="5"/>
+        <v>74</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="O33" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15">
       <c r="A34" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="5"/>
       <c r="O34" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15">
       <c r="A35" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1980,12 +1999,6 @@
       <c r="F35" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="I35" s="6" t="s">
         <v>16</v>
       </c>
@@ -2004,199 +2017,206 @@
     </row>
     <row r="36" spans="1:16" ht="15">
       <c r="A36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15">
+      <c r="A37" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B37" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L36" s="5"/>
-      <c r="O36" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="15">
-      <c r="A37" s="5" t="s">
+      <c r="C37" s="5"/>
+      <c r="D37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" s="5"/>
+      <c r="O37" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15">
+      <c r="A38" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="5"/>
-      <c r="I37" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="N37" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="15">
-      <c r="A38" s="4" t="s">
+      <c r="C38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="I38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="N38" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15">
+      <c r="A39" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B39" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O38" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="15">
-      <c r="A39" s="5" t="s">
+      <c r="C39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15">
+      <c r="A40" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B40" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="15">
-      <c r="A40" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="C40" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="D40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I40" s="6" t="s">
         <v>16</v>
       </c>
       <c r="J40" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K40" s="6"/>
-      <c r="L40" s="5"/>
-      <c r="O40" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P40" s="5" t="s">
-        <v>16</v>
+      <c r="K40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="15">
       <c r="A41" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
       <c r="I41" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J41" s="6"/>
+      <c r="J41" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="K41" s="6"/>
       <c r="L41" s="5"/>
-      <c r="N41" s="5"/>
       <c r="O41" s="5" t="s">
         <v>17</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="15">
       <c r="A42" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>16</v>
@@ -2204,27 +2224,29 @@
       <c r="D42" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="11"/>
+      <c r="E42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="5"/>
+      <c r="N42" s="5"/>
       <c r="O42" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15">
       <c r="A43" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>16</v>
@@ -2232,41 +2254,27 @@
       <c r="D43" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="H43" s="12"/>
       <c r="I43" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J43" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K43" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L43" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="11"/>
       <c r="M43" s="12"/>
-      <c r="N43" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="N43" s="11"/>
       <c r="O43" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="15">
       <c r="A44" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>16</v>
@@ -2280,7 +2288,9 @@
       <c r="F44" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H44" s="12"/>
+      <c r="H44" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="I44" s="13" t="s">
         <v>16</v>
       </c>
@@ -2290,21 +2300,23 @@
       <c r="K44" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L44" s="11"/>
+      <c r="L44" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="M44" s="12"/>
       <c r="N44" s="11" t="s">
         <v>16</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15">
       <c r="A45" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>16</v>
@@ -2318,14 +2330,16 @@
       <c r="F45" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H45" s="11"/>
+      <c r="H45" s="12"/>
       <c r="I45" s="13" t="s">
         <v>16</v>
       </c>
       <c r="J45" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K45" s="11"/>
+      <c r="K45" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="L45" s="11"/>
       <c r="M45" s="12"/>
       <c r="N45" s="11" t="s">
@@ -2337,10 +2351,10 @@
     </row>
     <row r="46" spans="1:16" ht="15">
       <c r="A46" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>16</v>
@@ -2354,30 +2368,29 @@
       <c r="F46" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" s="12"/>
+      <c r="H46" s="11"/>
       <c r="I46" s="13" t="s">
         <v>16</v>
       </c>
       <c r="J46" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K46" s="13"/>
+      <c r="K46" s="11"/>
       <c r="L46" s="11"/>
       <c r="M46" s="12"/>
-      <c r="N46" s="11"/>
+      <c r="N46" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="O46" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="15">
       <c r="A47" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>16</v>
@@ -2385,239 +2398,237 @@
       <c r="D47" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
+      <c r="E47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="H47" s="12"/>
       <c r="I47" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J47" s="13"/>
+      <c r="J47" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="K47" s="13"/>
       <c r="L47" s="11"/>
       <c r="M47" s="12"/>
-      <c r="N47" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="N47" s="11"/>
       <c r="O47" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="15">
-      <c r="A48" s="5" t="s">
-        <v>104</v>
+      <c r="A48" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
+        <v>103</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="H48" s="12"/>
-      <c r="I48" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J48" s="16"/>
-      <c r="K48" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L48" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
+      <c r="I48" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="O48" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P48" s="5" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="49" spans="1:16" ht="15">
-      <c r="A49" s="4" t="s">
-        <v>106</v>
+      <c r="A49" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
       <c r="G49" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H49" s="11"/>
+      <c r="H49" s="12"/>
       <c r="I49" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J49" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K49" s="14"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="L49" s="14" t="s">
         <v>16</v>
       </c>
       <c r="M49" s="15"/>
-      <c r="N49" s="14"/>
+      <c r="N49" s="15"/>
       <c r="O49" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P49" s="5"/>
+      <c r="P49" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="50" spans="1:16" ht="15">
       <c r="A50" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="6"/>
+      <c r="D50" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="E50" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H50" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="G50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="11"/>
       <c r="I50" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J50" s="15"/>
-      <c r="K50" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L50" s="14"/>
+      <c r="J50" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="M50" s="15"/>
-      <c r="N50" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="N50" s="14"/>
       <c r="O50" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="P50" s="5"/>
     </row>
     <row r="51" spans="1:16" ht="15">
       <c r="A51" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="15"/>
+      <c r="K51" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L51" s="14"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="15">
+      <c r="A52" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B52" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" s="15"/>
-      <c r="H51" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J51" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K51" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L51" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M51" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="N51" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="O51" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="15">
-      <c r="A52" s="5" t="s">
+      <c r="C52" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="15"/>
+      <c r="H52" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M52" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N52" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="O52" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="15">
+      <c r="A53" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B53" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C52" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J52" s="16"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="O52" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="15">
-      <c r="A53" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="C53" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="16"/>
       <c r="E53" s="16"/>
-      <c r="F53" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="F53" s="16"/>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
       <c r="I53" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K53" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L53" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M53" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="J53" s="16"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
       <c r="N53" s="14" t="s">
         <v>16</v>
       </c>
@@ -2627,10 +2638,10 @@
     </row>
     <row r="54" spans="1:16" ht="15">
       <c r="A54" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C54" s="16"/>
       <c r="D54" s="16" t="s">
@@ -2645,10 +2656,18 @@
       <c r="I54" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="15"/>
+      <c r="J54" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L54" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M54" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="N54" s="14" t="s">
         <v>16</v>
       </c>
@@ -2658,10 +2677,10 @@
     </row>
     <row r="55" spans="1:16" ht="15">
       <c r="A55" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C55" s="16"/>
       <c r="D55" s="16" t="s">
@@ -2676,16 +2695,10 @@
       <c r="I55" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J55" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K55" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
       <c r="L55" s="14"/>
-      <c r="M55" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="M55" s="15"/>
       <c r="N55" s="14" t="s">
         <v>16</v>
       </c>
@@ -2695,156 +2708,154 @@
     </row>
     <row r="56" spans="1:16" ht="15">
       <c r="A56" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N56" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="15">
+      <c r="A57" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B57" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C56" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I56" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="15">
-      <c r="A57" s="5" t="s">
+      <c r="C57" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="15">
+      <c r="A58" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="15">
+      <c r="A59" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B59" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C57" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="J57" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K57" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L57" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="M57" s="15"/>
-      <c r="N57" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="O57" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="15">
-      <c r="A58" s="4" t="s">
+      <c r="C59" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L59" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M59" s="15"/>
+      <c r="N59" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="O59" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="15">
+      <c r="A60" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B60" s="14" t="s">
         <v>125</v>
-      </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" s="15"/>
-      <c r="H58" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I58" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J58" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K58" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L58" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="M58" s="15"/>
-      <c r="N58" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="O58" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" ht="15">
-      <c r="A59" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J59" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" ht="15">
-      <c r="A60" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>129</v>
       </c>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
@@ -2855,15 +2866,21 @@
         <v>16</v>
       </c>
       <c r="G60" s="15"/>
-      <c r="H60" s="15" t="s">
+      <c r="H60" s="14" t="s">
         <v>16</v>
       </c>
       <c r="I60" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J60" s="16"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
+      <c r="J60" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L60" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="M60" s="15"/>
       <c r="N60" s="14" t="s">
         <v>16</v>
@@ -2873,21 +2890,17 @@
       </c>
     </row>
     <row r="61" spans="1:16" ht="15">
-      <c r="A61" s="5" t="s">
-        <v>130</v>
+      <c r="A61" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>16</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C61" s="16"/>
       <c r="D61" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="E61" s="16"/>
       <c r="F61" s="16" t="s">
         <v>16</v>
       </c>
@@ -2899,9 +2912,7 @@
       <c r="J61" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K61" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="K61" s="14"/>
       <c r="L61" s="14" t="s">
         <v>16</v>
       </c>
@@ -2913,98 +2924,146 @@
     </row>
     <row r="62" spans="1:16" ht="15">
       <c r="A62" s="5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
+        <v>129</v>
+      </c>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
+      <c r="H62" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="I62" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J62" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K62" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L62" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="J62" s="16"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
       <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
+      <c r="N62" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="O62" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P62" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="63" spans="1:16" ht="15">
-      <c r="A63" s="4" t="s">
-        <v>132</v>
+      <c r="A63" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
+        <v>131</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="G63" s="15"/>
       <c r="H63" s="15"/>
-      <c r="I63" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J63" s="16"/>
-      <c r="K63" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L63" s="14"/>
+      <c r="I63" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K63" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L63" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="M63" s="15"/>
       <c r="N63" s="15"/>
       <c r="O63" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="15">
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="19"/>
-      <c r="N64" s="19"/>
-    </row>
-    <row r="65" spans="3:14" ht="15">
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="19"/>
-      <c r="M65" s="19"/>
-      <c r="N65" s="19"/>
-    </row>
-    <row r="66" spans="3:14" ht="15">
+      <c r="A64" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K64" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L64" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="15">
+      <c r="A65" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" s="16"/>
+      <c r="K65" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L65" s="14"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="15">
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
@@ -3016,7 +3075,7 @@
       <c r="M66" s="19"/>
       <c r="N66" s="19"/>
     </row>
-    <row r="67" spans="3:14" ht="15">
+    <row r="67" spans="1:15" ht="15">
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
@@ -3028,7 +3087,7 @@
       <c r="M67" s="19"/>
       <c r="N67" s="19"/>
     </row>
-    <row r="68" spans="3:14" ht="15">
+    <row r="68" spans="1:15" ht="15">
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
@@ -3040,23 +3099,31 @@
       <c r="M68" s="19"/>
       <c r="N68" s="19"/>
     </row>
-    <row r="69" spans="3:14" ht="15">
+    <row r="69" spans="1:15" ht="15">
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-    </row>
-    <row r="70" spans="3:14" ht="15">
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+    </row>
+    <row r="70" spans="1:15" ht="15">
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-    </row>
-    <row r="71" spans="3:14" ht="15">
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+    </row>
+    <row r="71" spans="1:15" ht="15">
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
@@ -3064,7 +3131,7 @@
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
     </row>
-    <row r="72" spans="3:14" ht="15">
+    <row r="72" spans="1:15" ht="15">
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
@@ -3072,7 +3139,7 @@
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
     </row>
-    <row r="73" spans="3:14" ht="15">
+    <row r="73" spans="1:15" ht="15">
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -3080,7 +3147,7 @@
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="3:14" ht="15">
+    <row r="74" spans="1:15" ht="15">
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
@@ -3088,7 +3155,7 @@
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="3:14" ht="15">
+    <row r="75" spans="1:15" ht="15">
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -3096,7 +3163,7 @@
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
     </row>
-    <row r="76" spans="3:14" ht="15">
+    <row r="76" spans="1:15" ht="15">
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -3104,7 +3171,7 @@
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
     </row>
-    <row r="77" spans="3:14" ht="15">
+    <row r="77" spans="1:15" ht="15">
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
@@ -3112,7 +3179,7 @@
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
     </row>
-    <row r="78" spans="3:14" ht="15">
+    <row r="78" spans="1:15" ht="15">
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
@@ -3120,7 +3187,7 @@
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
     </row>
-    <row r="79" spans="3:14" ht="15">
+    <row r="79" spans="1:15" ht="15">
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -3128,7 +3195,7 @@
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
     </row>
-    <row r="80" spans="3:14" ht="15">
+    <row r="80" spans="1:15" ht="15">
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
@@ -3476,11 +3543,17 @@
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="I123" s="6"/>
+      <c r="J123" s="6"/>
     </row>
     <row r="124" spans="3:10" ht="15">
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="6"/>
     </row>
     <row r="125" spans="3:10" ht="15">
       <c r="C125" s="6"/>
@@ -3610,22 +3683,22 @@
     <row r="150" spans="3:5" ht="15">
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
-      <c r="E150" s="10"/>
+      <c r="E150" s="6"/>
     </row>
     <row r="151" spans="3:5" ht="15">
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
-      <c r="E151" s="10"/>
+      <c r="E151" s="6"/>
     </row>
     <row r="152" spans="3:5" ht="15">
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
+      <c r="E152" s="10"/>
     </row>
     <row r="153" spans="3:5" ht="15">
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
+      <c r="E153" s="10"/>
     </row>
     <row r="154" spans="3:5" ht="15">
       <c r="C154" s="6"/>
@@ -3640,22 +3713,22 @@
     <row r="156" spans="3:5" ht="15">
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
-      <c r="E156" s="10"/>
+      <c r="E156" s="6"/>
     </row>
     <row r="157" spans="3:5" ht="15">
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
-      <c r="E157" s="10"/>
+      <c r="E157" s="6"/>
     </row>
     <row r="158" spans="3:5" ht="15">
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
+      <c r="E158" s="10"/>
     </row>
     <row r="159" spans="3:5" ht="15">
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
-      <c r="E159" s="6"/>
+      <c r="E159" s="10"/>
     </row>
     <row r="160" spans="3:5" ht="15">
       <c r="C160" s="6"/>
@@ -4040,19 +4113,30 @@
     <row r="236" spans="3:5" ht="15">
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
-      <c r="E236" s="10"/>
+      <c r="E236" s="6"/>
     </row>
     <row r="237" spans="3:5" ht="15">
       <c r="C237" s="6"/>
       <c r="D237" s="6"/>
-      <c r="E237" s="10"/>
+      <c r="E237" s="6"/>
     </row>
     <row r="238" spans="3:5" ht="15">
       <c r="C238" s="6"/>
       <c r="D238" s="6"/>
       <c r="E238" s="10"/>
     </row>
+    <row r="239" spans="3:5" ht="15">
+      <c r="C239" s="6"/>
+      <c r="D239" s="6"/>
+      <c r="E239" s="10"/>
+    </row>
+    <row r="240" spans="3:5" ht="15">
+      <c r="C240" s="6"/>
+      <c r="D240" s="6"/>
+      <c r="E240" s="10"/>
+    </row>
   </sheetData>
+  <autoFilter ref="P1:P240" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>

--- a/beeswax/Beeswax Exchange Profile.xlsx
+++ b/beeswax/Beeswax Exchange Profile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tchen777/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwunchoy/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B73CC70-B5BB-B942-9724-5CAB0368F659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112D8BB1-ABD7-4444-96F3-7F9B3FA9242B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="25600" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18740" yWindow="3200" windowWidth="25600" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exchange Profile" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="146">
   <si>
     <t>Web Banner</t>
   </si>
@@ -259,9 +259,6 @@
     <t>mm</t>
   </si>
   <si>
-    <t>Mopub</t>
-  </si>
-  <si>
     <t>mp</t>
   </si>
   <si>
@@ -461,6 +458,9 @@
   </si>
   <si>
     <t>tmg</t>
+  </si>
+  <si>
+    <t>Mopub (deprecated)</t>
   </si>
 </sst>
 </file>
@@ -902,10 +902,10 @@
   <dimension ref="A1:Z240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L61" sqref="L61"/>
+      <selection pane="bottomRight" activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -918,7 +918,7 @@
     <row r="1" spans="1:26" ht="57.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1270,10 +1270,10 @@
     </row>
     <row r="12" spans="1:26" ht="15">
       <c r="A12" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>16</v>
@@ -1389,10 +1389,10 @@
     </row>
     <row r="16" spans="1:26" ht="15">
       <c r="A16" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>16</v>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="31" spans="1:16" ht="15">
       <c r="A31" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -1966,7 +1966,7 @@
         <v>75</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>16</v>
@@ -2017,10 +2017,10 @@
     </row>
     <row r="36" spans="1:16" ht="15">
       <c r="A36" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="37" spans="1:16" ht="15">
       <c r="A37" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="6" t="s">
@@ -2083,10 +2083,10 @@
     </row>
     <row r="38" spans="1:16" ht="15">
       <c r="A38" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>17</v>
@@ -2115,10 +2115,10 @@
     </row>
     <row r="39" spans="1:16" ht="15">
       <c r="A39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>16</v>
@@ -2150,10 +2150,10 @@
     </row>
     <row r="40" spans="1:16" ht="15">
       <c r="A40" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>16</v>
@@ -2185,10 +2185,10 @@
     </row>
     <row r="41" spans="1:16" ht="15">
       <c r="A41" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>16</v>
@@ -2213,10 +2213,10 @@
     </row>
     <row r="42" spans="1:16" ht="15">
       <c r="A42" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>16</v>
@@ -2243,10 +2243,10 @@
     </row>
     <row r="43" spans="1:16" ht="15">
       <c r="A43" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>16</v>
@@ -2271,10 +2271,10 @@
     </row>
     <row r="44" spans="1:16" ht="15">
       <c r="A44" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>16</v>
@@ -2313,10 +2313,10 @@
     </row>
     <row r="45" spans="1:16" ht="15">
       <c r="A45" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>16</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="46" spans="1:16" ht="15">
       <c r="A46" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>16</v>
@@ -2387,10 +2387,10 @@
     </row>
     <row r="47" spans="1:16" ht="15">
       <c r="A47" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>16</v>
@@ -2424,10 +2424,10 @@
     </row>
     <row r="48" spans="1:16" ht="15">
       <c r="A48" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>16</v>
@@ -2454,10 +2454,10 @@
     </row>
     <row r="49" spans="1:16" ht="15">
       <c r="A49" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -2488,10 +2488,10 @@
     </row>
     <row r="50" spans="1:16" ht="15">
       <c r="A50" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>16</v>
@@ -2520,7 +2520,9 @@
         <v>16</v>
       </c>
       <c r="M50" s="15"/>
-      <c r="N50" s="14"/>
+      <c r="N50" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="O50" s="5" t="s">
         <v>17</v>
       </c>
@@ -2528,10 +2530,10 @@
     </row>
     <row r="51" spans="1:16" ht="15">
       <c r="A51" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>16</v>
@@ -2564,10 +2566,10 @@
     </row>
     <row r="52" spans="1:16" ht="15">
       <c r="A52" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="14" t="s">
         <v>110</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>111</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>16</v>
@@ -2609,10 +2611,10 @@
     </row>
     <row r="53" spans="1:16" ht="15">
       <c r="A53" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="14" t="s">
         <v>112</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>113</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>16</v>
@@ -2638,10 +2640,10 @@
     </row>
     <row r="54" spans="1:16" ht="15">
       <c r="A54" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="C54" s="16"/>
       <c r="D54" s="16" t="s">
@@ -2677,10 +2679,10 @@
     </row>
     <row r="55" spans="1:16" ht="15">
       <c r="A55" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="14" t="s">
         <v>116</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>117</v>
       </c>
       <c r="C55" s="16"/>
       <c r="D55" s="16" t="s">
@@ -2708,10 +2710,10 @@
     </row>
     <row r="56" spans="1:16" ht="15">
       <c r="A56" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>119</v>
       </c>
       <c r="C56" s="16"/>
       <c r="D56" s="16" t="s">
@@ -2745,10 +2747,10 @@
     </row>
     <row r="57" spans="1:16" ht="15">
       <c r="A57" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>121</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>16</v>
@@ -2776,10 +2778,10 @@
     </row>
     <row r="58" spans="1:16" ht="15">
       <c r="A58" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" s="14" t="s">
         <v>144</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>145</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>16</v>
@@ -2809,10 +2811,10 @@
     </row>
     <row r="59" spans="1:16" ht="15">
       <c r="A59" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="14" t="s">
         <v>122</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>123</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>16</v>
@@ -2852,10 +2854,10 @@
     </row>
     <row r="60" spans="1:16" ht="15">
       <c r="A60" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>125</v>
       </c>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
@@ -2891,10 +2893,10 @@
     </row>
     <row r="61" spans="1:16" ht="15">
       <c r="A61" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" s="14" t="s">
         <v>126</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="C61" s="16"/>
       <c r="D61" s="16" t="s">
@@ -2924,10 +2926,10 @@
     </row>
     <row r="62" spans="1:16" ht="15">
       <c r="A62" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" s="14" t="s">
         <v>128</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>129</v>
       </c>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
@@ -2957,10 +2959,10 @@
     </row>
     <row r="63" spans="1:16" ht="15">
       <c r="A63" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" s="14" t="s">
         <v>130</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>131</v>
       </c>
       <c r="C63" s="16" t="s">
         <v>16</v>
@@ -2996,10 +2998,10 @@
     </row>
     <row r="64" spans="1:16" ht="15">
       <c r="A64" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" s="14" t="s">
         <v>135</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>136</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>16</v>
@@ -3034,10 +3036,10 @@
     </row>
     <row r="65" spans="1:15" ht="15">
       <c r="A65" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="14" t="s">
         <v>132</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>133</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>16</v>

--- a/beeswax/Beeswax Exchange Profile.xlsx
+++ b/beeswax/Beeswax Exchange Profile.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwunchoy/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112D8BB1-ABD7-4444-96F3-7F9B3FA9242B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66959AEC-97F6-0E49-B24B-D903474F47C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18740" yWindow="3200" windowWidth="25600" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9020" yWindow="460" windowWidth="32920" windowHeight="26960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exchange Profile" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Exchange Profile'!$P$1:$P$240</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Exchange Profile'!$P$1:$P$241</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="147">
   <si>
     <t>Web Banner</t>
   </si>
@@ -461,6 +461,9 @@
   </si>
   <si>
     <t>Mopub (deprecated)</t>
+  </si>
+  <si>
+    <t>Tubi</t>
   </si>
 </sst>
 </file>
@@ -899,13 +902,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z240"/>
+  <dimension ref="A1:Z241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O50" sqref="O50"/>
+      <selection pane="bottomRight" activeCell="P60" sqref="P60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -2853,123 +2856,113 @@
       </c>
     </row>
     <row r="60" spans="1:16" ht="15">
-      <c r="A60" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>124</v>
-      </c>
+      <c r="A60" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B60" s="14"/>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
-      <c r="E60" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" s="15"/>
-      <c r="H60" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I60" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J60" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K60" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L60" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="M60" s="15"/>
-      <c r="N60" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" s="17"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N60" s="14"/>
       <c r="O60" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="15">
       <c r="A61" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" s="15"/>
+      <c r="H61" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K61" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L61" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="M61" s="15"/>
+      <c r="N61" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="15">
+      <c r="A62" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B62" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J61" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="15">
-      <c r="A62" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>128</v>
-      </c>
       <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="D62" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="16"/>
       <c r="F62" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G62" s="15"/>
-      <c r="H62" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="H62" s="15"/>
       <c r="I62" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J62" s="16"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="20"/>
+      <c r="J62" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="M62" s="15"/>
-      <c r="N62" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="N62" s="15"/>
       <c r="O62" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="15">
       <c r="A63" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>16</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
       <c r="E63" s="16" t="s">
         <v>16</v>
       </c>
@@ -2977,31 +2970,29 @@
         <v>16</v>
       </c>
       <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
+      <c r="H63" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="I63" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J63" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K63" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L63" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="J63" s="16"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
       <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
+      <c r="N63" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="O63" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="15">
       <c r="A64" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>16</v>
@@ -3009,8 +3000,12 @@
       <c r="D64" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
+      <c r="E64" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="G64" s="15"/>
       <c r="H64" s="15"/>
       <c r="I64" s="16" t="s">
@@ -3030,54 +3025,77 @@
       <c r="O64" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P64" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="15">
-      <c r="A65" s="4" t="s">
-        <v>131</v>
+    </row>
+    <row r="65" spans="1:16" ht="15">
+      <c r="A65" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
       <c r="G65" s="15"/>
       <c r="H65" s="15"/>
-      <c r="I65" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J65" s="16"/>
-      <c r="K65" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L65" s="14"/>
+      <c r="I65" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L65" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="M65" s="15"/>
       <c r="N65" s="15"/>
       <c r="O65" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="15">
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="19"/>
-      <c r="N66" s="19"/>
-    </row>
-    <row r="67" spans="1:15" ht="15">
+        <v>17</v>
+      </c>
+      <c r="P65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="15">
+      <c r="A66" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J66" s="16"/>
+      <c r="K66" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L66" s="14"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="15">
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
@@ -3089,7 +3107,7 @@
       <c r="M67" s="19"/>
       <c r="N67" s="19"/>
     </row>
-    <row r="68" spans="1:15" ht="15">
+    <row r="68" spans="1:16" ht="15">
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
@@ -3101,7 +3119,7 @@
       <c r="M68" s="19"/>
       <c r="N68" s="19"/>
     </row>
-    <row r="69" spans="1:15" ht="15">
+    <row r="69" spans="1:16" ht="15">
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
@@ -3113,7 +3131,7 @@
       <c r="M69" s="19"/>
       <c r="N69" s="19"/>
     </row>
-    <row r="70" spans="1:15" ht="15">
+    <row r="70" spans="1:16" ht="15">
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -3125,15 +3143,19 @@
       <c r="M70" s="19"/>
       <c r="N70" s="19"/>
     </row>
-    <row r="71" spans="1:15" ht="15">
+    <row r="71" spans="1:16" ht="15">
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-    </row>
-    <row r="72" spans="1:15" ht="15">
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+    </row>
+    <row r="72" spans="1:16" ht="15">
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
@@ -3141,7 +3163,7 @@
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
     </row>
-    <row r="73" spans="1:15" ht="15">
+    <row r="73" spans="1:16" ht="15">
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -3149,7 +3171,7 @@
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" ht="15">
+    <row r="74" spans="1:16" ht="15">
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
@@ -3157,7 +3179,7 @@
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" ht="15">
+    <row r="75" spans="1:16" ht="15">
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -3165,7 +3187,7 @@
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
     </row>
-    <row r="76" spans="1:15" ht="15">
+    <row r="76" spans="1:16" ht="15">
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -3173,7 +3195,7 @@
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
     </row>
-    <row r="77" spans="1:15" ht="15">
+    <row r="77" spans="1:16" ht="15">
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
@@ -3181,7 +3203,7 @@
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
     </row>
-    <row r="78" spans="1:15" ht="15">
+    <row r="78" spans="1:16" ht="15">
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
@@ -3189,7 +3211,7 @@
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
     </row>
-    <row r="79" spans="1:15" ht="15">
+    <row r="79" spans="1:16" ht="15">
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -3197,7 +3219,7 @@
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
     </row>
-    <row r="80" spans="1:15" ht="15">
+    <row r="80" spans="1:16" ht="15">
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
@@ -3561,6 +3583,9 @@
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="6"/>
     </row>
     <row r="126" spans="3:10" ht="15">
       <c r="C126" s="6"/>
@@ -3695,7 +3720,7 @@
     <row r="152" spans="3:5" ht="15">
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
-      <c r="E152" s="10"/>
+      <c r="E152" s="6"/>
     </row>
     <row r="153" spans="3:5" ht="15">
       <c r="C153" s="6"/>
@@ -3705,7 +3730,7 @@
     <row r="154" spans="3:5" ht="15">
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
-      <c r="E154" s="6"/>
+      <c r="E154" s="10"/>
     </row>
     <row r="155" spans="3:5" ht="15">
       <c r="C155" s="6"/>
@@ -3725,7 +3750,7 @@
     <row r="158" spans="3:5" ht="15">
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
-      <c r="E158" s="10"/>
+      <c r="E158" s="6"/>
     </row>
     <row r="159" spans="3:5" ht="15">
       <c r="C159" s="6"/>
@@ -3735,7 +3760,7 @@
     <row r="160" spans="3:5" ht="15">
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
-      <c r="E160" s="6"/>
+      <c r="E160" s="10"/>
     </row>
     <row r="161" spans="3:5" ht="15">
       <c r="C161" s="6"/>
@@ -4125,7 +4150,7 @@
     <row r="238" spans="3:5" ht="15">
       <c r="C238" s="6"/>
       <c r="D238" s="6"/>
-      <c r="E238" s="10"/>
+      <c r="E238" s="6"/>
     </row>
     <row r="239" spans="3:5" ht="15">
       <c r="C239" s="6"/>
@@ -4137,8 +4162,13 @@
       <c r="D240" s="6"/>
       <c r="E240" s="10"/>
     </row>
+    <row r="241" spans="3:5" ht="15">
+      <c r="C241" s="6"/>
+      <c r="D241" s="6"/>
+      <c r="E241" s="10"/>
+    </row>
   </sheetData>
-  <autoFilter ref="P1:P240" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="P1:P241" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>

--- a/beeswax/Beeswax Exchange Profile.xlsx
+++ b/beeswax/Beeswax Exchange Profile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwunchoy/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66959AEC-97F6-0E49-B24B-D903474F47C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2D345E6-B6D1-ED45-9AEC-92EC75432364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9020" yWindow="460" windowWidth="32920" windowHeight="26960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5480" yWindow="460" windowWidth="32920" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exchange Profile" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="147">
   <si>
     <t>Web Banner</t>
   </si>
@@ -905,10 +905,10 @@
   <dimension ref="A1:Z241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P60" sqref="P60"/>
+      <selection pane="bottomRight" activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -2239,7 +2239,9 @@
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="5"/>
-      <c r="N42" s="5"/>
+      <c r="N42" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="O42" s="5" t="s">
         <v>17</v>
       </c>

--- a/beeswax/Beeswax Exchange Profile.xlsx
+++ b/beeswax/Beeswax Exchange Profile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwunchoy/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tchen777/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2D345E6-B6D1-ED45-9AEC-92EC75432364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{064B98A9-D3F8-9A4D-B87B-95E06DC7B47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="460" windowWidth="32920" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exchange Profile" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="147">
   <si>
     <t>Web Banner</t>
   </si>
@@ -470,7 +470,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -524,6 +524,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -557,8 +563,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -566,25 +572,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -908,7 +904,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N42" sqref="N42"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -983,21 +979,21 @@
       <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="I2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L2" s="5"/>
@@ -1006,21 +1002,21 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="15">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="I3" s="6" t="s">
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="I3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J3" s="5"/>
@@ -1034,21 +1030,21 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="15">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="5" t="s">
@@ -1069,8 +1065,8 @@
       <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
@@ -1080,10 +1076,10 @@
       <c r="H5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="6" t="s">
+      <c r="I5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="5"/>
@@ -1116,7 +1112,7 @@
       <c r="F6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J6" s="5" t="s">
@@ -1147,7 +1143,7 @@
       <c r="F7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="5" t="s">
@@ -1166,16 +1162,20 @@
       <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="I8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="6"/>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="4"/>
       <c r="N8" s="5" t="s">
         <v>16</v>
       </c>
@@ -1187,8 +1187,8 @@
       <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="5"/>
@@ -1197,13 +1197,13 @@
         <v>16</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="6"/>
+      <c r="I9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="4"/>
       <c r="L9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5" t="s">
@@ -1220,15 +1220,15 @@
       <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="I10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="6" t="s">
+      <c r="F10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="5" t="s">
@@ -1246,22 +1246,22 @@
       <c r="B11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6" t="s">
+      <c r="I11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L11" s="5" t="s">
@@ -1272,28 +1272,28 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="15">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="4" t="s">
         <v>138</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="10"/>
+      <c r="I12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="4"/>
       <c r="L12" s="5" t="s">
         <v>16</v>
       </c>
@@ -1313,19 +1313,19 @@
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="6" t="s">
+      <c r="E13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L13" s="5"/>
@@ -1340,24 +1340,24 @@
       <c r="B14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
       <c r="N14" s="5" t="s">
         <v>16</v>
       </c>
@@ -1373,25 +1373,25 @@
         <v>41</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="F15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
       <c r="O15" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1400,21 +1400,21 @@
       <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
+      <c r="F16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
       <c r="O16" s="5" t="s">
         <v>17</v>
       </c>
@@ -1426,16 +1426,16 @@
       <c r="B17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="6"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="4"/>
       <c r="K17" s="5" t="s">
         <v>16</v>
       </c>
@@ -1451,17 +1451,20 @@
         <v>45</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
-      <c r="I18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="F18" s="4"/>
+      <c r="I18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="N18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1476,17 +1479,17 @@
       <c r="B19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="I19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="C19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="I19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
       <c r="L19" s="5"/>
       <c r="O19" s="5" t="s">
         <v>17</v>
@@ -1499,21 +1502,21 @@
       <c r="B20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="6" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L20" s="5" t="s">
@@ -1533,19 +1536,19 @@
       <c r="B21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="I21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="C21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="I21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
       <c r="L21" s="5"/>
       <c r="N21" s="5" t="s">
         <v>16</v>
@@ -1561,28 +1564,28 @@
       <c r="B22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="6" t="s">
+      <c r="C22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N22" s="5" t="s">
@@ -1599,18 +1602,18 @@
       <c r="B23" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="6" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="O23" s="5" t="s">
@@ -1642,7 +1645,7 @@
       <c r="H24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J24" s="5" t="s">
@@ -1671,22 +1674,22 @@
       <c r="B25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" s="6" t="s">
+      <c r="C25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K25" s="5" t="s">
@@ -1721,7 +1724,7 @@
       <c r="H26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J26" s="5" t="s">
@@ -1750,7 +1753,7 @@
       <c r="C27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="5" t="s">
         <v>16</v>
       </c>
@@ -1760,13 +1763,13 @@
       <c r="H27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" s="6"/>
+      <c r="I27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="4"/>
       <c r="L27" s="5"/>
       <c r="N27" s="5" t="s">
         <v>16</v>
@@ -1783,7 +1786,7 @@
         <v>65</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="5" t="s">
         <v>16</v>
       </c>
@@ -1793,13 +1796,13 @@
       <c r="H28" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" s="6" t="s">
+      <c r="I28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L28" s="5"/>
@@ -1817,22 +1820,22 @@
       <c r="B29" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="6" t="s">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6" t="s">
+      <c r="I29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L29" s="5" t="s">
@@ -1849,18 +1852,18 @@
       <c r="B30" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="I30" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30" s="6"/>
+      <c r="C30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="I30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="4"/>
       <c r="K30" s="5" t="s">
         <v>16</v>
       </c>
@@ -1875,16 +1878,16 @@
       <c r="B31" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31" s="10"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="4"/>
       <c r="K31" s="5"/>
       <c r="O31" s="5"/>
     </row>
@@ -1895,24 +1898,24 @@
       <c r="B32" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L32" s="6"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="4"/>
       <c r="M32" s="5" t="s">
         <v>16</v>
       </c>
@@ -1942,7 +1945,7 @@
       <c r="F33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I33" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J33" s="5" t="s">
@@ -1971,17 +1974,17 @@
       <c r="B34" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
+      <c r="C34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
       <c r="L34" s="5"/>
       <c r="O34" s="5" t="s">
         <v>17</v>
@@ -1994,21 +1997,21 @@
       <c r="B35" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K35" s="6" t="s">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L35" s="5" t="s">
@@ -2025,12 +2028,12 @@
       <c r="B36" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="6" t="s">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="5" t="s">
@@ -2039,13 +2042,13 @@
       <c r="H36" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I36" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K36" s="6" t="s">
+      <c r="I36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L36" s="5" t="s">
@@ -2063,20 +2066,20 @@
         <v>80</v>
       </c>
       <c r="C37" s="5"/>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E37" s="5"/>
-      <c r="F37" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K37" s="6" t="s">
+      <c r="F37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L37" s="5"/>
@@ -2091,23 +2094,23 @@
       <c r="B38" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="6" t="s">
+      <c r="C38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="5"/>
-      <c r="I38" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38" s="6" t="s">
+      <c r="I38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K38" s="5"/>
@@ -2123,25 +2126,25 @@
       <c r="B39" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K39" s="6" t="s">
+      <c r="C39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L39" s="5" t="s">
@@ -2158,22 +2161,22 @@
       <c r="B40" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J40" s="6" t="s">
+      <c r="C40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K40" s="5" t="s">
@@ -2193,19 +2196,19 @@
       <c r="B41" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="I41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K41" s="6"/>
+      <c r="C41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="I41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="4"/>
       <c r="L41" s="5"/>
       <c r="O41" s="5" t="s">
         <v>17</v>
@@ -2221,23 +2224,23 @@
       <c r="B42" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
+      <c r="C42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
       <c r="L42" s="5"/>
       <c r="N42" s="5" t="s">
         <v>16</v>
@@ -2253,23 +2256,21 @@
       <c r="B43" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="11"/>
+      <c r="C43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="I43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="5"/>
+      <c r="N43" s="5"/>
       <c r="O43" s="5" t="s">
         <v>17</v>
       </c>
@@ -2281,35 +2282,34 @@
       <c r="B44" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J44" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K44" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L44" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M44" s="12"/>
-      <c r="N44" s="11" t="s">
+      <c r="C44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N44" s="5" t="s">
         <v>16</v>
       </c>
       <c r="O44" s="5" t="s">
@@ -2323,31 +2323,29 @@
       <c r="B45" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45" s="12"/>
-      <c r="I45" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J45" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K45" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L45" s="11"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="11" t="s">
+      <c r="C45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L45" s="5"/>
+      <c r="N45" s="5" t="s">
         <v>16</v>
       </c>
       <c r="O45" s="5" t="s">
@@ -2358,32 +2356,31 @@
       <c r="A46" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" s="11"/>
-      <c r="I46" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J46" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="11" t="s">
+      <c r="C46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="5"/>
+      <c r="I46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="N46" s="5" t="s">
         <v>16</v>
       </c>
       <c r="O46" s="5" t="s">
@@ -2397,32 +2394,30 @@
       <c r="B47" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H47" s="12"/>
-      <c r="I47" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J47" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K47" s="13"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="11"/>
+      <c r="C47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="4"/>
+      <c r="L47" s="5"/>
+      <c r="N47" s="5"/>
       <c r="O47" s="5" t="s">
         <v>17</v>
       </c>
@@ -2434,23 +2429,21 @@
       <c r="B48" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="11" t="s">
+      <c r="C48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="I48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="5"/>
+      <c r="N48" s="5" t="s">
         <v>16</v>
       </c>
       <c r="O48" s="5" t="s">
@@ -2464,26 +2457,23 @@
       <c r="B49" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
       <c r="G49" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H49" s="12"/>
-      <c r="I49" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J49" s="16"/>
-      <c r="K49" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L49" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
+      <c r="I49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" s="4"/>
+      <c r="K49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="O49" s="5" t="s">
         <v>17</v>
       </c>
@@ -2498,10 +2488,10 @@
       <c r="B50" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="6" t="s">
+      <c r="C50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E50" s="5" t="s">
@@ -2513,19 +2503,18 @@
       <c r="G50" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H50" s="11"/>
-      <c r="I50" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J50" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M50" s="15"/>
-      <c r="N50" s="14" t="s">
+      <c r="H50" s="5"/>
+      <c r="I50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N50" s="5" t="s">
         <v>16</v>
       </c>
       <c r="O50" s="5" t="s">
@@ -2540,29 +2529,27 @@
       <c r="B51" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="6"/>
+      <c r="C51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="4"/>
       <c r="E51" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H51" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J51" s="15"/>
-      <c r="K51" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L51" s="14"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="14" t="s">
+      <c r="H51" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L51" s="5"/>
+      <c r="N51" s="5" t="s">
         <v>16</v>
       </c>
       <c r="O51" s="5" t="s">
@@ -2573,41 +2560,40 @@
       <c r="A52" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" s="15"/>
-      <c r="H52" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I52" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J52" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K52" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L52" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M52" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="N52" s="14" t="s">
+      <c r="C52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N52" s="5" t="s">
         <v>16</v>
       </c>
       <c r="O52" s="5" t="s">
@@ -2618,25 +2604,20 @@
       <c r="A53" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J53" s="16"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="14" t="s">
+      <c r="C53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="I53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="4"/>
+      <c r="N53" s="5" t="s">
         <v>16</v>
       </c>
       <c r="O53" s="5" t="s">
@@ -2647,35 +2628,33 @@
       <c r="A54" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J54" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K54" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L54" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M54" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="N54" s="14" t="s">
+      <c r="C54" s="4"/>
+      <c r="D54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N54" s="5" t="s">
         <v>16</v>
       </c>
       <c r="O54" s="5" t="s">
@@ -2686,27 +2665,24 @@
       <c r="A55" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="14" t="s">
+      <c r="C55" s="4"/>
+      <c r="D55" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="5"/>
+      <c r="N55" s="5" t="s">
         <v>16</v>
       </c>
       <c r="O55" s="5" t="s">
@@ -2717,33 +2693,31 @@
       <c r="A56" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J56" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K56" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="N56" s="14" t="s">
+      <c r="C56" s="4"/>
+      <c r="D56" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N56" s="5" t="s">
         <v>16</v>
       </c>
       <c r="O56" s="5" t="s">
@@ -2754,62 +2728,57 @@
       <c r="A57" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I57" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="14"/>
+      <c r="C57" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="H57" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="5"/>
+      <c r="N57" s="5"/>
       <c r="O57" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="15">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C58" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="14"/>
+      <c r="C58" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="5"/>
+      <c r="N58" s="5"/>
       <c r="O58" s="5" t="s">
         <v>17</v>
       </c>
@@ -2818,39 +2787,37 @@
       <c r="A59" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="J59" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K59" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L59" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="M59" s="15"/>
-      <c r="N59" s="14" t="s">
+      <c r="C59" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N59" s="5" t="s">
         <v>16</v>
       </c>
       <c r="O59" s="5" t="s">
@@ -2861,25 +2828,24 @@
       <c r="A60" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" s="17"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N60" s="14"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" s="8"/>
+      <c r="I60" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" t="s">
+        <v>16</v>
+      </c>
+      <c r="N60" s="5"/>
       <c r="O60" s="5" t="s">
         <v>17</v>
       </c>
@@ -2888,35 +2854,33 @@
       <c r="A61" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" s="15"/>
-      <c r="H61" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I61" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J61" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K61" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L61" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="M61" s="15"/>
-      <c r="N61" s="14" t="s">
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N61" s="5" t="s">
         <v>16</v>
       </c>
       <c r="O61" s="5" t="s">
@@ -2927,31 +2891,27 @@
       <c r="A62" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J62" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="O62" s="5" t="s">
         <v>17</v>
       </c>
@@ -2960,29 +2920,27 @@
       <c r="A63" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F63" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I63" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J63" s="16"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="14" t="s">
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" s="4"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="N63" s="5" t="s">
         <v>16</v>
       </c>
       <c r="O63" s="5" t="s">
@@ -2993,37 +2951,33 @@
       <c r="A64" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F64" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J64" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K64" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L64" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
+      <c r="C64" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="O64" s="5" t="s">
         <v>17</v>
       </c>
@@ -3032,33 +2986,29 @@
       <c r="A65" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C65" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J65" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K65" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L65" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
+      <c r="C65" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="I65" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="O65" s="5" t="s">
         <v>17</v>
       </c>
@@ -3070,1104 +3020,1080 @@
       <c r="A66" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C66" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J66" s="16"/>
-      <c r="K66" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L66" s="14"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
+      <c r="C66" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="I66" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J66" s="4"/>
+      <c r="K66" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L66" s="5"/>
       <c r="O66" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="15">
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
-      <c r="N67" s="19"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
     </row>
     <row r="68" spans="1:16" ht="15">
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
     </row>
     <row r="69" spans="1:16" ht="15">
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="19"/>
-      <c r="L69" s="19"/>
-      <c r="M69" s="19"/>
-      <c r="N69" s="19"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
     </row>
     <row r="70" spans="1:16" ht="15">
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="19"/>
-      <c r="N70" s="19"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
     </row>
     <row r="71" spans="1:16" ht="15">
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="19"/>
-      <c r="L71" s="19"/>
-      <c r="M71" s="19"/>
-      <c r="N71" s="19"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
     </row>
     <row r="72" spans="1:16" ht="15">
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
     </row>
     <row r="73" spans="1:16" ht="15">
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
     </row>
     <row r="74" spans="1:16" ht="15">
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
     </row>
     <row r="75" spans="1:16" ht="15">
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
     </row>
     <row r="76" spans="1:16" ht="15">
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
     </row>
     <row r="77" spans="1:16" ht="15">
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
     </row>
     <row r="78" spans="1:16" ht="15">
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
     </row>
     <row r="79" spans="1:16" ht="15">
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
     </row>
     <row r="80" spans="1:16" ht="15">
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
     </row>
     <row r="81" spans="3:10" ht="15">
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
     </row>
     <row r="82" spans="3:10" ht="15">
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
     </row>
     <row r="83" spans="3:10" ht="15">
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
     </row>
     <row r="84" spans="3:10" ht="15">
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
     </row>
     <row r="85" spans="3:10" ht="15">
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
     </row>
     <row r="86" spans="3:10" ht="15">
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
     </row>
     <row r="87" spans="3:10" ht="15">
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
     </row>
     <row r="88" spans="3:10" ht="15">
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
     </row>
     <row r="89" spans="3:10" ht="15">
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
     </row>
     <row r="90" spans="3:10" ht="15">
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
     </row>
     <row r="91" spans="3:10" ht="15">
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
     </row>
     <row r="92" spans="3:10" ht="15">
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
     </row>
     <row r="93" spans="3:10" ht="15">
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
     </row>
     <row r="94" spans="3:10" ht="15">
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
     </row>
     <row r="95" spans="3:10" ht="15">
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
     </row>
     <row r="96" spans="3:10" ht="15">
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
     </row>
     <row r="97" spans="3:10" ht="15">
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
     </row>
     <row r="98" spans="3:10" ht="15">
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
     </row>
     <row r="99" spans="3:10" ht="15">
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
     </row>
     <row r="100" spans="3:10" ht="15">
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
     </row>
     <row r="101" spans="3:10" ht="15">
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
     </row>
     <row r="102" spans="3:10" ht="15">
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
     </row>
     <row r="103" spans="3:10" ht="15">
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
     </row>
     <row r="104" spans="3:10" ht="15">
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
     </row>
     <row r="105" spans="3:10" ht="15">
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
     </row>
     <row r="106" spans="3:10" ht="15">
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
     </row>
     <row r="107" spans="3:10" ht="15">
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
     </row>
     <row r="108" spans="3:10" ht="15">
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="6"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
     </row>
     <row r="109" spans="3:10" ht="15">
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="6"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
     </row>
     <row r="110" spans="3:10" ht="15">
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="6"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
     </row>
     <row r="111" spans="3:10" ht="15">
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="6"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
     </row>
     <row r="112" spans="3:10" ht="15">
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="I112" s="6"/>
-      <c r="J112" s="6"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
     </row>
     <row r="113" spans="3:10" ht="15">
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="I113" s="6"/>
-      <c r="J113" s="6"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
     </row>
     <row r="114" spans="3:10" ht="15">
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="I114" s="6"/>
-      <c r="J114" s="6"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
     </row>
     <row r="115" spans="3:10" ht="15">
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-      <c r="I115" s="6"/>
-      <c r="J115" s="6"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
     </row>
     <row r="116" spans="3:10" ht="15">
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
-      <c r="I116" s="6"/>
-      <c r="J116" s="6"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
     </row>
     <row r="117" spans="3:10" ht="15">
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
-      <c r="I117" s="6"/>
-      <c r="J117" s="6"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
     </row>
     <row r="118" spans="3:10" ht="15">
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
-      <c r="I118" s="6"/>
-      <c r="J118" s="6"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
     </row>
     <row r="119" spans="3:10" ht="15">
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="I119" s="6"/>
-      <c r="J119" s="6"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
     </row>
     <row r="120" spans="3:10" ht="15">
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
-      <c r="I120" s="6"/>
-      <c r="J120" s="6"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
     </row>
     <row r="121" spans="3:10" ht="15">
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
-      <c r="I121" s="6"/>
-      <c r="J121" s="6"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
     </row>
     <row r="122" spans="3:10" ht="15">
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6"/>
-      <c r="I122" s="6"/>
-      <c r="J122" s="6"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
     </row>
     <row r="123" spans="3:10" ht="15">
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
-      <c r="I123" s="6"/>
-      <c r="J123" s="6"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
     </row>
     <row r="124" spans="3:10" ht="15">
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6"/>
-      <c r="I124" s="6"/>
-      <c r="J124" s="6"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
     </row>
     <row r="125" spans="3:10" ht="15">
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6"/>
-      <c r="I125" s="6"/>
-      <c r="J125" s="6"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
     </row>
     <row r="126" spans="3:10" ht="15">
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
     </row>
     <row r="127" spans="3:10" ht="15">
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
     </row>
     <row r="128" spans="3:10" ht="15">
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
     </row>
     <row r="129" spans="3:5" ht="15">
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
     </row>
     <row r="130" spans="3:5" ht="15">
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="6"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
     </row>
     <row r="131" spans="3:5" ht="15">
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
     </row>
     <row r="132" spans="3:5" ht="15">
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
     </row>
     <row r="133" spans="3:5" ht="15">
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
     </row>
     <row r="134" spans="3:5" ht="15">
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
     </row>
     <row r="135" spans="3:5" ht="15">
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
     </row>
     <row r="136" spans="3:5" ht="15">
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
     </row>
     <row r="137" spans="3:5" ht="15">
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
     </row>
     <row r="138" spans="3:5" ht="15">
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
     </row>
     <row r="139" spans="3:5" ht="15">
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
     </row>
     <row r="140" spans="3:5" ht="15">
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
     </row>
     <row r="141" spans="3:5" ht="15">
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
     </row>
     <row r="142" spans="3:5" ht="15">
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
     </row>
     <row r="143" spans="3:5" ht="15">
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
     </row>
     <row r="144" spans="3:5" ht="15">
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
     </row>
     <row r="145" spans="3:5" ht="15">
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
     </row>
     <row r="146" spans="3:5" ht="15">
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
     </row>
     <row r="147" spans="3:5" ht="15">
-      <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
     </row>
     <row r="148" spans="3:5" ht="15">
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
     </row>
     <row r="149" spans="3:5" ht="15">
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
     </row>
     <row r="150" spans="3:5" ht="15">
-      <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="6"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
     </row>
     <row r="151" spans="3:5" ht="15">
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
     </row>
     <row r="152" spans="3:5" ht="15">
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
     </row>
     <row r="153" spans="3:5" ht="15">
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="10"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
     </row>
     <row r="154" spans="3:5" ht="15">
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="10"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
     </row>
     <row r="155" spans="3:5" ht="15">
-      <c r="C155" s="6"/>
-      <c r="D155" s="6"/>
-      <c r="E155" s="6"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
     </row>
     <row r="156" spans="3:5" ht="15">
-      <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
-      <c r="E156" s="6"/>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
     </row>
     <row r="157" spans="3:5" ht="15">
-      <c r="C157" s="6"/>
-      <c r="D157" s="6"/>
-      <c r="E157" s="6"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
     </row>
     <row r="158" spans="3:5" ht="15">
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
     </row>
     <row r="159" spans="3:5" ht="15">
-      <c r="C159" s="6"/>
-      <c r="D159" s="6"/>
-      <c r="E159" s="10"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
     </row>
     <row r="160" spans="3:5" ht="15">
-      <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="10"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
     </row>
     <row r="161" spans="3:5" ht="15">
-      <c r="C161" s="6"/>
-      <c r="D161" s="6"/>
-      <c r="E161" s="6"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
     </row>
     <row r="162" spans="3:5" ht="15">
-      <c r="C162" s="6"/>
-      <c r="D162" s="6"/>
-      <c r="E162" s="6"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
     </row>
     <row r="163" spans="3:5" ht="15">
-      <c r="C163" s="6"/>
-      <c r="D163" s="6"/>
-      <c r="E163" s="6"/>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4"/>
     </row>
     <row r="164" spans="3:5" ht="15">
-      <c r="C164" s="6"/>
-      <c r="D164" s="6"/>
-      <c r="E164" s="6"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
     </row>
     <row r="165" spans="3:5" ht="15">
-      <c r="C165" s="6"/>
-      <c r="D165" s="6"/>
-      <c r="E165" s="6"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="4"/>
     </row>
     <row r="166" spans="3:5" ht="15">
-      <c r="C166" s="6"/>
-      <c r="D166" s="6"/>
-      <c r="E166" s="6"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
     </row>
     <row r="167" spans="3:5" ht="15">
-      <c r="C167" s="6"/>
-      <c r="D167" s="6"/>
-      <c r="E167" s="6"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
+      <c r="E167" s="4"/>
     </row>
     <row r="168" spans="3:5" ht="15">
-      <c r="C168" s="6"/>
-      <c r="D168" s="6"/>
-      <c r="E168" s="6"/>
+      <c r="C168" s="4"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4"/>
     </row>
     <row r="169" spans="3:5" ht="15">
-      <c r="C169" s="6"/>
-      <c r="D169" s="6"/>
-      <c r="E169" s="6"/>
+      <c r="C169" s="4"/>
+      <c r="D169" s="4"/>
+      <c r="E169" s="4"/>
     </row>
     <row r="170" spans="3:5" ht="15">
-      <c r="C170" s="6"/>
-      <c r="D170" s="6"/>
-      <c r="E170" s="6"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="4"/>
     </row>
     <row r="171" spans="3:5" ht="15">
-      <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
-      <c r="E171" s="6"/>
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
     </row>
     <row r="172" spans="3:5" ht="15">
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
-      <c r="E172" s="6"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
     </row>
     <row r="173" spans="3:5" ht="15">
-      <c r="C173" s="6"/>
-      <c r="D173" s="6"/>
-      <c r="E173" s="6"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
     </row>
     <row r="174" spans="3:5" ht="15">
-      <c r="C174" s="6"/>
-      <c r="D174" s="6"/>
-      <c r="E174" s="6"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4"/>
     </row>
     <row r="175" spans="3:5" ht="15">
-      <c r="C175" s="6"/>
-      <c r="D175" s="6"/>
-      <c r="E175" s="6"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
     </row>
     <row r="176" spans="3:5" ht="15">
-      <c r="C176" s="6"/>
-      <c r="D176" s="6"/>
-      <c r="E176" s="6"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
     </row>
     <row r="177" spans="3:5" ht="15">
-      <c r="C177" s="6"/>
-      <c r="D177" s="6"/>
-      <c r="E177" s="6"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
     </row>
     <row r="178" spans="3:5" ht="15">
-      <c r="C178" s="6"/>
-      <c r="D178" s="6"/>
-      <c r="E178" s="6"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
     </row>
     <row r="179" spans="3:5" ht="15">
-      <c r="C179" s="6"/>
-      <c r="D179" s="6"/>
-      <c r="E179" s="6"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
     </row>
     <row r="180" spans="3:5" ht="15">
-      <c r="C180" s="6"/>
-      <c r="D180" s="6"/>
-      <c r="E180" s="6"/>
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
     </row>
     <row r="181" spans="3:5" ht="15">
-      <c r="C181" s="6"/>
-      <c r="D181" s="6"/>
-      <c r="E181" s="6"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
     </row>
     <row r="182" spans="3:5" ht="15">
-      <c r="C182" s="6"/>
-      <c r="D182" s="6"/>
-      <c r="E182" s="6"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="4"/>
     </row>
     <row r="183" spans="3:5" ht="15">
-      <c r="C183" s="6"/>
-      <c r="D183" s="6"/>
-      <c r="E183" s="6"/>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
     </row>
     <row r="184" spans="3:5" ht="15">
-      <c r="C184" s="6"/>
-      <c r="D184" s="6"/>
-      <c r="E184" s="6"/>
+      <c r="C184" s="4"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="4"/>
     </row>
     <row r="185" spans="3:5" ht="15">
-      <c r="C185" s="6"/>
-      <c r="D185" s="6"/>
-      <c r="E185" s="6"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
+      <c r="E185" s="4"/>
     </row>
     <row r="186" spans="3:5" ht="15">
-      <c r="C186" s="6"/>
-      <c r="D186" s="6"/>
-      <c r="E186" s="6"/>
+      <c r="C186" s="4"/>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4"/>
     </row>
     <row r="187" spans="3:5" ht="15">
-      <c r="C187" s="6"/>
-      <c r="D187" s="6"/>
-      <c r="E187" s="6"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
+      <c r="E187" s="4"/>
     </row>
     <row r="188" spans="3:5" ht="15">
-      <c r="C188" s="6"/>
-      <c r="D188" s="6"/>
-      <c r="E188" s="6"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4"/>
     </row>
     <row r="189" spans="3:5" ht="15">
-      <c r="C189" s="6"/>
-      <c r="D189" s="6"/>
-      <c r="E189" s="6"/>
+      <c r="C189" s="4"/>
+      <c r="D189" s="4"/>
+      <c r="E189" s="4"/>
     </row>
     <row r="190" spans="3:5" ht="15">
-      <c r="C190" s="6"/>
-      <c r="D190" s="6"/>
-      <c r="E190" s="6"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="4"/>
     </row>
     <row r="191" spans="3:5" ht="15">
-      <c r="C191" s="6"/>
-      <c r="D191" s="6"/>
-      <c r="E191" s="6"/>
+      <c r="C191" s="4"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="4"/>
     </row>
     <row r="192" spans="3:5" ht="15">
-      <c r="C192" s="6"/>
-      <c r="D192" s="6"/>
-      <c r="E192" s="6"/>
+      <c r="C192" s="4"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="4"/>
     </row>
     <row r="193" spans="3:5" ht="15">
-      <c r="C193" s="6"/>
-      <c r="D193" s="6"/>
-      <c r="E193" s="6"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="4"/>
+      <c r="E193" s="4"/>
     </row>
     <row r="194" spans="3:5" ht="15">
-      <c r="C194" s="6"/>
-      <c r="D194" s="6"/>
-      <c r="E194" s="6"/>
+      <c r="C194" s="4"/>
+      <c r="D194" s="4"/>
+      <c r="E194" s="4"/>
     </row>
     <row r="195" spans="3:5" ht="15">
-      <c r="C195" s="6"/>
-      <c r="D195" s="6"/>
-      <c r="E195" s="6"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="4"/>
     </row>
     <row r="196" spans="3:5" ht="15">
-      <c r="C196" s="6"/>
-      <c r="D196" s="6"/>
-      <c r="E196" s="6"/>
+      <c r="C196" s="4"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="4"/>
     </row>
     <row r="197" spans="3:5" ht="15">
-      <c r="C197" s="6"/>
-      <c r="D197" s="6"/>
-      <c r="E197" s="6"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4"/>
     </row>
     <row r="198" spans="3:5" ht="15">
-      <c r="C198" s="6"/>
-      <c r="D198" s="6"/>
-      <c r="E198" s="6"/>
+      <c r="C198" s="4"/>
+      <c r="D198" s="4"/>
+      <c r="E198" s="4"/>
     </row>
     <row r="199" spans="3:5" ht="15">
-      <c r="C199" s="6"/>
-      <c r="D199" s="6"/>
-      <c r="E199" s="6"/>
+      <c r="C199" s="4"/>
+      <c r="D199" s="4"/>
+      <c r="E199" s="4"/>
     </row>
     <row r="200" spans="3:5" ht="15">
-      <c r="C200" s="6"/>
-      <c r="D200" s="6"/>
-      <c r="E200" s="6"/>
+      <c r="C200" s="4"/>
+      <c r="D200" s="4"/>
+      <c r="E200" s="4"/>
     </row>
     <row r="201" spans="3:5" ht="15">
-      <c r="C201" s="6"/>
-      <c r="D201" s="6"/>
-      <c r="E201" s="6"/>
+      <c r="C201" s="4"/>
+      <c r="D201" s="4"/>
+      <c r="E201" s="4"/>
     </row>
     <row r="202" spans="3:5" ht="15">
-      <c r="C202" s="6"/>
-      <c r="D202" s="6"/>
-      <c r="E202" s="6"/>
+      <c r="C202" s="4"/>
+      <c r="D202" s="4"/>
+      <c r="E202" s="4"/>
     </row>
     <row r="203" spans="3:5" ht="15">
-      <c r="C203" s="6"/>
-      <c r="D203" s="6"/>
-      <c r="E203" s="6"/>
+      <c r="C203" s="4"/>
+      <c r="D203" s="4"/>
+      <c r="E203" s="4"/>
     </row>
     <row r="204" spans="3:5" ht="15">
-      <c r="C204" s="6"/>
-      <c r="D204" s="6"/>
-      <c r="E204" s="6"/>
+      <c r="C204" s="4"/>
+      <c r="D204" s="4"/>
+      <c r="E204" s="4"/>
     </row>
     <row r="205" spans="3:5" ht="15">
-      <c r="C205" s="6"/>
-      <c r="D205" s="6"/>
-      <c r="E205" s="6"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="4"/>
     </row>
     <row r="206" spans="3:5" ht="15">
-      <c r="C206" s="6"/>
-      <c r="D206" s="6"/>
-      <c r="E206" s="6"/>
+      <c r="C206" s="4"/>
+      <c r="D206" s="4"/>
+      <c r="E206" s="4"/>
     </row>
     <row r="207" spans="3:5" ht="15">
-      <c r="C207" s="6"/>
-      <c r="D207" s="6"/>
-      <c r="E207" s="6"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="4"/>
+      <c r="E207" s="4"/>
     </row>
     <row r="208" spans="3:5" ht="15">
-      <c r="C208" s="6"/>
-      <c r="D208" s="6"/>
-      <c r="E208" s="6"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="4"/>
     </row>
     <row r="209" spans="3:5" ht="15">
-      <c r="C209" s="6"/>
-      <c r="D209" s="6"/>
-      <c r="E209" s="6"/>
+      <c r="C209" s="4"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="4"/>
     </row>
     <row r="210" spans="3:5" ht="15">
-      <c r="C210" s="6"/>
-      <c r="D210" s="6"/>
-      <c r="E210" s="6"/>
+      <c r="C210" s="4"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="4"/>
     </row>
     <row r="211" spans="3:5" ht="15">
-      <c r="C211" s="6"/>
-      <c r="D211" s="6"/>
-      <c r="E211" s="6"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="4"/>
     </row>
     <row r="212" spans="3:5" ht="15">
-      <c r="C212" s="6"/>
-      <c r="D212" s="6"/>
-      <c r="E212" s="6"/>
+      <c r="C212" s="4"/>
+      <c r="D212" s="4"/>
+      <c r="E212" s="4"/>
     </row>
     <row r="213" spans="3:5" ht="15">
-      <c r="C213" s="6"/>
-      <c r="D213" s="6"/>
-      <c r="E213" s="6"/>
+      <c r="C213" s="4"/>
+      <c r="D213" s="4"/>
+      <c r="E213" s="4"/>
     </row>
     <row r="214" spans="3:5" ht="15">
-      <c r="C214" s="6"/>
-      <c r="D214" s="6"/>
-      <c r="E214" s="6"/>
+      <c r="C214" s="4"/>
+      <c r="D214" s="4"/>
+      <c r="E214" s="4"/>
     </row>
     <row r="215" spans="3:5" ht="15">
-      <c r="C215" s="6"/>
-      <c r="D215" s="6"/>
-      <c r="E215" s="6"/>
+      <c r="C215" s="4"/>
+      <c r="D215" s="4"/>
+      <c r="E215" s="4"/>
     </row>
     <row r="216" spans="3:5" ht="15">
-      <c r="C216" s="6"/>
-      <c r="D216" s="6"/>
-      <c r="E216" s="6"/>
+      <c r="C216" s="4"/>
+      <c r="D216" s="4"/>
+      <c r="E216" s="4"/>
     </row>
     <row r="217" spans="3:5" ht="15">
-      <c r="C217" s="6"/>
-      <c r="D217" s="6"/>
-      <c r="E217" s="6"/>
+      <c r="C217" s="4"/>
+      <c r="D217" s="4"/>
+      <c r="E217" s="4"/>
     </row>
     <row r="218" spans="3:5" ht="15">
-      <c r="C218" s="6"/>
-      <c r="D218" s="6"/>
-      <c r="E218" s="6"/>
+      <c r="C218" s="4"/>
+      <c r="D218" s="4"/>
+      <c r="E218" s="4"/>
     </row>
     <row r="219" spans="3:5" ht="15">
-      <c r="C219" s="6"/>
-      <c r="D219" s="6"/>
-      <c r="E219" s="6"/>
+      <c r="C219" s="4"/>
+      <c r="D219" s="4"/>
+      <c r="E219" s="4"/>
     </row>
     <row r="220" spans="3:5" ht="15">
-      <c r="C220" s="6"/>
-      <c r="D220" s="6"/>
-      <c r="E220" s="6"/>
+      <c r="C220" s="4"/>
+      <c r="D220" s="4"/>
+      <c r="E220" s="4"/>
     </row>
     <row r="221" spans="3:5" ht="15">
-      <c r="C221" s="6"/>
-      <c r="D221" s="6"/>
-      <c r="E221" s="6"/>
+      <c r="C221" s="4"/>
+      <c r="D221" s="4"/>
+      <c r="E221" s="4"/>
     </row>
     <row r="222" spans="3:5" ht="15">
-      <c r="C222" s="6"/>
-      <c r="D222" s="6"/>
-      <c r="E222" s="6"/>
+      <c r="C222" s="4"/>
+      <c r="D222" s="4"/>
+      <c r="E222" s="4"/>
     </row>
     <row r="223" spans="3:5" ht="15">
-      <c r="C223" s="6"/>
-      <c r="D223" s="6"/>
-      <c r="E223" s="6"/>
+      <c r="C223" s="4"/>
+      <c r="D223" s="4"/>
+      <c r="E223" s="4"/>
     </row>
     <row r="224" spans="3:5" ht="15">
-      <c r="C224" s="6"/>
-      <c r="D224" s="6"/>
-      <c r="E224" s="6"/>
+      <c r="C224" s="4"/>
+      <c r="D224" s="4"/>
+      <c r="E224" s="4"/>
     </row>
     <row r="225" spans="3:5" ht="15">
-      <c r="C225" s="6"/>
-      <c r="D225" s="6"/>
-      <c r="E225" s="6"/>
+      <c r="C225" s="4"/>
+      <c r="D225" s="4"/>
+      <c r="E225" s="4"/>
     </row>
     <row r="226" spans="3:5" ht="15">
-      <c r="C226" s="6"/>
-      <c r="D226" s="6"/>
-      <c r="E226" s="6"/>
+      <c r="C226" s="4"/>
+      <c r="D226" s="4"/>
+      <c r="E226" s="4"/>
     </row>
     <row r="227" spans="3:5" ht="15">
-      <c r="C227" s="6"/>
-      <c r="D227" s="6"/>
-      <c r="E227" s="6"/>
+      <c r="C227" s="4"/>
+      <c r="D227" s="4"/>
+      <c r="E227" s="4"/>
     </row>
     <row r="228" spans="3:5" ht="15">
-      <c r="C228" s="6"/>
-      <c r="D228" s="6"/>
-      <c r="E228" s="6"/>
+      <c r="C228" s="4"/>
+      <c r="D228" s="4"/>
+      <c r="E228" s="4"/>
     </row>
     <row r="229" spans="3:5" ht="15">
-      <c r="C229" s="6"/>
-      <c r="D229" s="6"/>
-      <c r="E229" s="6"/>
+      <c r="C229" s="4"/>
+      <c r="D229" s="4"/>
+      <c r="E229" s="4"/>
     </row>
     <row r="230" spans="3:5" ht="15">
-      <c r="C230" s="6"/>
-      <c r="D230" s="6"/>
-      <c r="E230" s="6"/>
+      <c r="C230" s="4"/>
+      <c r="D230" s="4"/>
+      <c r="E230" s="4"/>
     </row>
     <row r="231" spans="3:5" ht="15">
-      <c r="C231" s="6"/>
-      <c r="D231" s="6"/>
-      <c r="E231" s="6"/>
+      <c r="C231" s="4"/>
+      <c r="D231" s="4"/>
+      <c r="E231" s="4"/>
     </row>
     <row r="232" spans="3:5" ht="15">
-      <c r="C232" s="6"/>
-      <c r="D232" s="6"/>
-      <c r="E232" s="6"/>
+      <c r="C232" s="4"/>
+      <c r="D232" s="4"/>
+      <c r="E232" s="4"/>
     </row>
     <row r="233" spans="3:5" ht="15">
-      <c r="C233" s="6"/>
-      <c r="D233" s="6"/>
-      <c r="E233" s="6"/>
+      <c r="C233" s="4"/>
+      <c r="D233" s="4"/>
+      <c r="E233" s="4"/>
     </row>
     <row r="234" spans="3:5" ht="15">
-      <c r="C234" s="6"/>
-      <c r="D234" s="6"/>
-      <c r="E234" s="6"/>
+      <c r="C234" s="4"/>
+      <c r="D234" s="4"/>
+      <c r="E234" s="4"/>
     </row>
     <row r="235" spans="3:5" ht="15">
-      <c r="C235" s="6"/>
-      <c r="D235" s="6"/>
-      <c r="E235" s="6"/>
+      <c r="C235" s="4"/>
+      <c r="D235" s="4"/>
+      <c r="E235" s="4"/>
     </row>
     <row r="236" spans="3:5" ht="15">
-      <c r="C236" s="6"/>
-      <c r="D236" s="6"/>
-      <c r="E236" s="6"/>
+      <c r="C236" s="4"/>
+      <c r="D236" s="4"/>
+      <c r="E236" s="4"/>
     </row>
     <row r="237" spans="3:5" ht="15">
-      <c r="C237" s="6"/>
-      <c r="D237" s="6"/>
-      <c r="E237" s="6"/>
+      <c r="C237" s="4"/>
+      <c r="D237" s="4"/>
+      <c r="E237" s="4"/>
     </row>
     <row r="238" spans="3:5" ht="15">
-      <c r="C238" s="6"/>
-      <c r="D238" s="6"/>
-      <c r="E238" s="6"/>
+      <c r="C238" s="4"/>
+      <c r="D238" s="4"/>
+      <c r="E238" s="4"/>
     </row>
     <row r="239" spans="3:5" ht="15">
-      <c r="C239" s="6"/>
-      <c r="D239" s="6"/>
-      <c r="E239" s="10"/>
+      <c r="C239" s="4"/>
+      <c r="D239" s="4"/>
+      <c r="E239" s="4"/>
     </row>
     <row r="240" spans="3:5" ht="15">
-      <c r="C240" s="6"/>
-      <c r="D240" s="6"/>
-      <c r="E240" s="10"/>
+      <c r="C240" s="4"/>
+      <c r="D240" s="4"/>
+      <c r="E240" s="4"/>
     </row>
     <row r="241" spans="3:5" ht="15">
-      <c r="C241" s="6"/>
-      <c r="D241" s="6"/>
-      <c r="E241" s="10"/>
+      <c r="C241" s="4"/>
+      <c r="D241" s="4"/>
+      <c r="E241" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="P1:P241" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/beeswax/Beeswax Exchange Profile.xlsx
+++ b/beeswax/Beeswax Exchange Profile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tchen777/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{064B98A9-D3F8-9A4D-B87B-95E06DC7B47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B24E60D-95AE-9043-A30B-17869C613F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="148">
   <si>
     <t>Web Banner</t>
   </si>
@@ -464,6 +464,9 @@
   </si>
   <si>
     <t>Tubi</t>
+  </si>
+  <si>
+    <t>tub</t>
   </si>
 </sst>
 </file>
@@ -901,10 +904,10 @@
   <dimension ref="A1:Z241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -2828,7 +2831,9 @@
       <c r="A60" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B60" s="5"/>
+      <c r="B60" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="8"/>

--- a/beeswax/Beeswax Exchange Profile.xlsx
+++ b/beeswax/Beeswax Exchange Profile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tchen777/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B24E60D-95AE-9043-A30B-17869C613F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AF17BC-55EC-E644-A715-EDF213E55FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -907,7 +907,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C48" sqref="C48"/>
+      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
